--- a/test/data.xlsx
+++ b/test/data.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pdf-processor\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9E48C260-92B4-4C8A-9DA0-5DB03AB40558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83793A8-D6D8-4984-A02A-FB6CC99C335B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="975" windowWidth="25560" windowHeight="21105" xr2:uid="{5F5D9E9C-E15E-4ACC-9CD3-12C1B6ECDF4D}"/>
+    <workbookView xWindow="13815" yWindow="225" windowWidth="25560" windowHeight="21600" activeTab="1" xr2:uid="{5F5D9E9C-E15E-4ACC-9CD3-12C1B6ECDF4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="190">
   <si>
     <t>REPORT</t>
   </si>
@@ -405,6 +419,192 @@
   <si>
     <t>TEXT</t>
   </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>BottomLeftX</t>
+  </si>
+  <si>
+    <t>BottomLeftY</t>
+  </si>
+  <si>
+    <t>TopRightX</t>
+  </si>
+  <si>
+    <t>TopRightY</t>
+  </si>
+  <si>
+    <t>TextRotation</t>
+  </si>
+  <si>
+    <t>SheetNumber</t>
+  </si>
+  <si>
+    <t>40AA</t>
+  </si>
+  <si>
+    <t>ALLEN</t>
+  </si>
+  <si>
+    <t>ROAD</t>
+  </si>
+  <si>
+    <t>WORKORDER:</t>
+  </si>
+  <si>
+    <t>D.C.</t>
+  </si>
+  <si>
+    <t>RLY</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>1-8/DC2</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D42</t>
+  </si>
+  <si>
+    <t>FRONT</t>
+  </si>
+  <si>
+    <t>30A</t>
+  </si>
+  <si>
+    <t>(PRI.)</t>
+  </si>
+  <si>
+    <t>FEEDER</t>
+  </si>
+  <si>
+    <t>BK-B</t>
+  </si>
+  <si>
+    <t>#262</t>
+  </si>
+  <si>
+    <t>CTRL</t>
+  </si>
+  <si>
+    <t>CAB</t>
+  </si>
+  <si>
+    <t>S.S.</t>
+  </si>
+  <si>
+    <t>CAB.</t>
+  </si>
+  <si>
+    <t>262/AC</t>
+  </si>
+  <si>
+    <t>D130</t>
+  </si>
+  <si>
+    <t>D52</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>2-8/COM1</t>
+  </si>
+  <si>
+    <t>DATA/ENG.</t>
+  </si>
+  <si>
+    <t>ACCESS</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>SEL351_P2</t>
+  </si>
+  <si>
+    <t>SEL3610#A2_P1</t>
+  </si>
+  <si>
+    <t>DIFF</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>6-8/C2</t>
+  </si>
+  <si>
+    <t>D31</t>
+  </si>
+  <si>
+    <t>PCB#</t>
+  </si>
+  <si>
+    <t>CONTROL</t>
+  </si>
+  <si>
+    <t>A""</t>
+  </si>
+  <si>
+    <t>TERM.</t>
+  </si>
+  <si>
+    <t>6-A/262C4</t>
+  </si>
+  <si>
+    <t>D45</t>
+  </si>
+  <si>
+    <t>BUS-2</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>7-A/262R2</t>
+  </si>
+  <si>
+    <t>RELAYING</t>
+  </si>
+  <si>
+    <t>D38</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>8-A/262C1</t>
+  </si>
+  <si>
+    <t>8-A/262C2</t>
+  </si>
+  <si>
+    <t>8-A/262C3</t>
+  </si>
+  <si>
+    <t>8-A/262R1</t>
+  </si>
+  <si>
+    <t>A-262/C1</t>
+  </si>
+  <si>
+    <t>D131</t>
+  </si>
+  <si>
+    <t>A-262/C2</t>
+  </si>
+  <si>
+    <t>A-262/C3</t>
+  </si>
+  <si>
+    <t>A-262/C4</t>
+  </si>
 </sst>
 </file>
 
@@ -546,7 +746,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,6 +926,24 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -887,12 +1105,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1272,7 +1499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E8F88D-1758-4A96-9136-732E2F026D02}">
   <dimension ref="A1:F613"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -13544,4 +13771,8827 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940657F2-2814-44AC-80E1-A2F30C826E47}">
+  <dimension ref="A1:I352"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="H187" sqref="A187:H187"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="20.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>701.58632812500002</v>
+      </c>
+      <c r="C2" s="3">
+        <v>578.675515625</v>
+      </c>
+      <c r="D2" s="3">
+        <v>704.54470312499996</v>
+      </c>
+      <c r="E2" s="3">
+        <v>584.44551562499998</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>27.9374299804687</v>
+      </c>
+      <c r="C3" s="3">
+        <v>577.67999999999995</v>
+      </c>
+      <c r="D3" s="3">
+        <v>68.904651235937493</v>
+      </c>
+      <c r="E3" s="3">
+        <v>584.29692246093703</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1">
+        <f>C4-70</f>
+        <v>507.67999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>77.901713888281193</v>
+      </c>
+      <c r="C4" s="3">
+        <v>577.67999999999995</v>
+      </c>
+      <c r="D4" s="3">
+        <v>137.88468204609299</v>
+      </c>
+      <c r="E4" s="3">
+        <v>584.29692246093703</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>309.931994289062</v>
+      </c>
+      <c r="C5" s="3">
+        <v>577.67999999999995</v>
+      </c>
+      <c r="D5" s="3">
+        <v>347.40403608320202</v>
+      </c>
+      <c r="E5" s="3">
+        <v>584.29692246093703</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>72.568240157421798</v>
+      </c>
+      <c r="C6" s="3">
+        <v>577.55800659179602</v>
+      </c>
+      <c r="D6" s="3">
+        <v>74.193192354687497</v>
+      </c>
+      <c r="E6" s="3">
+        <v>583.328006591796</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>350.17822474257798</v>
+      </c>
+      <c r="C7" s="3">
+        <v>577.52872817382797</v>
+      </c>
+      <c r="D7" s="3">
+        <v>401.97943659374903</v>
+      </c>
+      <c r="E7" s="3">
+        <v>584.29692246093703</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>259.71501811523399</v>
+      </c>
+      <c r="C8" s="3">
+        <v>577.52384843749996</v>
+      </c>
+      <c r="D8" s="3">
+        <v>307.09924879374898</v>
+      </c>
+      <c r="E8" s="3">
+        <v>584.43355507812498</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>654.168828125</v>
+      </c>
+      <c r="C9" s="3">
+        <v>576.70385937499998</v>
+      </c>
+      <c r="D9" s="3">
+        <v>692.90351799999996</v>
+      </c>
+      <c r="E9" s="3">
+        <v>581.82742187500003</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>29.206690820312499</v>
+      </c>
+      <c r="C10" s="3">
+        <v>567.66999999999996</v>
+      </c>
+      <c r="D10" s="3">
+        <v>46.9595355203125</v>
+      </c>
+      <c r="E10" s="3">
+        <v>573.43999999999903</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>50.393095147656197</v>
+      </c>
+      <c r="C11" s="3">
+        <v>567.66999999999996</v>
+      </c>
+      <c r="D11" s="3">
+        <v>52.4973549132812</v>
+      </c>
+      <c r="E11" s="3">
+        <v>573.40605625000001</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>65.407877040624996</v>
+      </c>
+      <c r="C12" s="3">
+        <v>567.66999999999996</v>
+      </c>
+      <c r="D12" s="3">
+        <v>69.191647841406194</v>
+      </c>
+      <c r="E12" s="3">
+        <v>573.40605625000001</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
+        <v>56.468856859375002</v>
+      </c>
+      <c r="C13" s="3">
+        <v>567.57647734374996</v>
+      </c>
+      <c r="D13" s="3">
+        <v>63.135027100000002</v>
+      </c>
+      <c r="E13" s="3">
+        <v>573.48009501953095</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <v>284.16335742187499</v>
+      </c>
+      <c r="C14" s="3">
+        <v>562.1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>316.848777453124</v>
+      </c>
+      <c r="E14" s="3">
+        <v>571.35099218749997</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
+        <v>321.38569324999997</v>
+      </c>
+      <c r="C15" s="3">
+        <v>561.88850976562503</v>
+      </c>
+      <c r="D15" s="3">
+        <v>339.828624093749</v>
+      </c>
+      <c r="E15" s="3">
+        <v>571.35099218749997</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>343.86282078124998</v>
+      </c>
+      <c r="C16" s="3">
+        <v>561.88850976562503</v>
+      </c>
+      <c r="D16" s="3">
+        <v>381.98236640624901</v>
+      </c>
+      <c r="E16" s="3">
+        <v>571.35099218749997</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="3">
+        <v>699.62934374999998</v>
+      </c>
+      <c r="C17" s="3">
+        <v>558.91</v>
+      </c>
+      <c r="D17" s="3">
+        <v>726.35328837500003</v>
+      </c>
+      <c r="E17" s="3">
+        <v>566.76684375000002</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3">
+        <v>617.82131249999998</v>
+      </c>
+      <c r="C18" s="3">
+        <v>558.86</v>
+      </c>
+      <c r="D18" s="3">
+        <v>691.40939000000003</v>
+      </c>
+      <c r="E18" s="3">
+        <v>564.63</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3">
+        <v>27.425078124999999</v>
+      </c>
+      <c r="C19" s="3">
+        <v>552.83000000000004</v>
+      </c>
+      <c r="D19" s="3">
+        <v>77.362105124999999</v>
+      </c>
+      <c r="E19" s="3">
+        <v>560.09731250000004</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3">
+        <v>78.821612999999999</v>
+      </c>
+      <c r="C20" s="3">
+        <v>552.83000000000004</v>
+      </c>
+      <c r="D20" s="3">
+        <v>110.50075</v>
+      </c>
+      <c r="E20" s="3">
+        <v>558.6</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="3">
+        <v>272.63658447265601</v>
+      </c>
+      <c r="C21" s="3">
+        <v>539.07000000000005</v>
+      </c>
+      <c r="D21" s="3">
+        <v>321.86401544921802</v>
+      </c>
+      <c r="E21" s="3">
+        <v>550.51238769531199</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="3">
+        <v>328.87306330078098</v>
+      </c>
+      <c r="C22" s="3">
+        <v>539.07000000000005</v>
+      </c>
+      <c r="D22" s="3">
+        <v>372.75719582031201</v>
+      </c>
+      <c r="E22" s="3">
+        <v>550.51238769531199</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="3">
+        <v>616.96056250000004</v>
+      </c>
+      <c r="C23" s="3">
+        <v>537.66385937500002</v>
+      </c>
+      <c r="D23" s="3">
+        <v>688.80962999999997</v>
+      </c>
+      <c r="E23" s="3">
+        <v>542.78742187499995</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>1833801</v>
+      </c>
+      <c r="B24" s="3">
+        <v>52.89721875</v>
+      </c>
+      <c r="C24" s="3">
+        <v>537.51</v>
+      </c>
+      <c r="D24" s="3">
+        <v>92.986544249999895</v>
+      </c>
+      <c r="E24" s="3">
+        <v>545.399</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>585107</v>
+      </c>
+      <c r="B25" s="3">
+        <v>699.97770312499995</v>
+      </c>
+      <c r="C25" s="3">
+        <v>537.37601562500004</v>
+      </c>
+      <c r="D25" s="3">
+        <v>735.64185699999996</v>
+      </c>
+      <c r="E25" s="3">
+        <v>545.25965625000003</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3">
+        <v>136.94</v>
+      </c>
+      <c r="C26" s="3">
+        <v>516.79</v>
+      </c>
+      <c r="D26" s="3">
+        <v>170.165681124999</v>
+      </c>
+      <c r="E26" s="3">
+        <v>524.05731249999997</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3">
+        <v>275.42357812500001</v>
+      </c>
+      <c r="C27" s="3">
+        <v>516.79</v>
+      </c>
+      <c r="D27" s="3">
+        <v>289.11987662500002</v>
+      </c>
+      <c r="E27" s="3">
+        <v>524.2288125</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3">
+        <v>415.16</v>
+      </c>
+      <c r="C28" s="3">
+        <v>516.79</v>
+      </c>
+      <c r="D28" s="3">
+        <v>473.377089874999</v>
+      </c>
+      <c r="E28" s="3">
+        <v>524.05731249999997</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3">
+        <v>609.63412499999902</v>
+      </c>
+      <c r="C29" s="3">
+        <v>516.79</v>
+      </c>
+      <c r="D29" s="3">
+        <v>678.07158587499998</v>
+      </c>
+      <c r="E29" s="3">
+        <v>524.05731249999997</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3">
+        <v>489.27875</v>
+      </c>
+      <c r="C30" s="3">
+        <v>516.63993749999997</v>
+      </c>
+      <c r="D30" s="3">
+        <v>536.66690112499998</v>
+      </c>
+      <c r="E30" s="3">
+        <v>524.22345312499999</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="3">
+        <v>28.470156249999999</v>
+      </c>
+      <c r="C31" s="3">
+        <v>516.62385937499903</v>
+      </c>
+      <c r="D31" s="3">
+        <v>73.772953125000001</v>
+      </c>
+      <c r="E31" s="3">
+        <v>524.05731249999997</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="3">
+        <v>567.74882812500005</v>
+      </c>
+      <c r="C32" s="3">
+        <v>516.62385937499903</v>
+      </c>
+      <c r="D32" s="3">
+        <v>592.57281</v>
+      </c>
+      <c r="E32" s="3">
+        <v>524.05731249999997</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="3">
+        <v>76.491914124999994</v>
+      </c>
+      <c r="C33" s="3">
+        <v>504.79</v>
+      </c>
+      <c r="D33" s="3">
+        <v>103.296377999999</v>
+      </c>
+      <c r="E33" s="3">
+        <v>512.05731249999997</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="3">
+        <v>136.591640625</v>
+      </c>
+      <c r="C34" s="3">
+        <v>504.79</v>
+      </c>
+      <c r="D34" s="3">
+        <v>203.46210599999901</v>
+      </c>
+      <c r="E34" s="3">
+        <v>512.05731249999997</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="3">
+        <v>274.20164062499998</v>
+      </c>
+      <c r="C35" s="3">
+        <v>504.79</v>
+      </c>
+      <c r="D35" s="3">
+        <v>341.072105999999</v>
+      </c>
+      <c r="E35" s="3">
+        <v>512.05731249999997</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="3">
+        <v>546.20628124999996</v>
+      </c>
+      <c r="C36" s="3">
+        <v>504.79</v>
+      </c>
+      <c r="D36" s="3">
+        <v>592.55840087499905</v>
+      </c>
+      <c r="E36" s="3">
+        <v>512.05731249999997</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="3">
+        <v>609.67164062500001</v>
+      </c>
+      <c r="C37" s="3">
+        <v>504.79</v>
+      </c>
+      <c r="D37" s="3">
+        <v>718.86937787500005</v>
+      </c>
+      <c r="E37" s="3">
+        <v>512.05731249999997</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="3">
+        <v>492.67874999999998</v>
+      </c>
+      <c r="C38" s="3">
+        <v>504.63993749999997</v>
+      </c>
+      <c r="D38" s="3">
+        <v>535.18258112499996</v>
+      </c>
+      <c r="E38" s="3">
+        <v>512.22345312499999</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="3">
+        <v>28.470156249999999</v>
+      </c>
+      <c r="C39" s="3">
+        <v>504.62385937499999</v>
+      </c>
+      <c r="D39" s="3">
+        <v>73.772953125000001</v>
+      </c>
+      <c r="E39" s="3">
+        <v>512.05731249999997</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="3">
+        <v>422.45232812499899</v>
+      </c>
+      <c r="C40" s="3">
+        <v>504.62385937499999</v>
+      </c>
+      <c r="D40" s="3">
+        <v>472.33863399999899</v>
+      </c>
+      <c r="E40" s="3">
+        <v>512.05731249999997</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="1">
+        <v>137.655690820312</v>
+      </c>
+      <c r="C41" s="1">
+        <v>486.56</v>
+      </c>
+      <c r="D41" s="1">
+        <v>152.31421374140601</v>
+      </c>
+      <c r="E41" s="1">
+        <v>492.33</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>19</v>
+      </c>
+      <c r="H41" s="1">
+        <f>C41-$I$41</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <f>C41</f>
+        <v>486.56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="1">
+        <v>155.93924542031201</v>
+      </c>
+      <c r="C42" s="1">
+        <v>486.56</v>
+      </c>
+      <c r="D42" s="1">
+        <v>181.36830504843701</v>
+      </c>
+      <c r="E42" s="1">
+        <v>492.27267558593701</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>19</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" ref="H42:H69" si="0">C42-$I$41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="1">
+        <v>275.29738115234301</v>
+      </c>
+      <c r="C43" s="1">
+        <v>486.56</v>
+      </c>
+      <c r="D43" s="1">
+        <v>290.097933814062</v>
+      </c>
+      <c r="E43" s="1">
+        <v>492.27267558593701</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>19</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="1">
+        <v>293.12233182031201</v>
+      </c>
+      <c r="C44" s="1">
+        <v>486.56</v>
+      </c>
+      <c r="D44" s="1">
+        <v>318.55139144843702</v>
+      </c>
+      <c r="E44" s="1">
+        <v>492.27267558593701</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>19</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="1">
+        <v>416.02428447265601</v>
+      </c>
+      <c r="C45" s="1">
+        <v>486.56</v>
+      </c>
+      <c r="D45" s="1">
+        <v>447.549618448437</v>
+      </c>
+      <c r="E45" s="1">
+        <v>492.27267558593701</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>19</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1">
+        <v>508.72898134765597</v>
+      </c>
+      <c r="C46" s="1">
+        <v>486.56</v>
+      </c>
+      <c r="D46" s="1">
+        <v>510.83324111328102</v>
+      </c>
+      <c r="E46" s="1">
+        <v>492.29605624999999</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>19</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1">
+        <v>619.29880462031201</v>
+      </c>
+      <c r="C47" s="1">
+        <v>486.56</v>
+      </c>
+      <c r="D47" s="1">
+        <v>635.11806840234306</v>
+      </c>
+      <c r="E47" s="1">
+        <v>492.27267558593701</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>19</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="1">
+        <v>184.023818524218</v>
+      </c>
+      <c r="C48" s="1">
+        <v>486.46258056640602</v>
+      </c>
+      <c r="D48" s="1">
+        <v>191.35244091328099</v>
+      </c>
+      <c r="E48" s="1">
+        <v>492.29605624999999</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>19</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.7419433593984195E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="1">
+        <v>321.15902132421797</v>
+      </c>
+      <c r="C49" s="1">
+        <v>486.46258056640602</v>
+      </c>
+      <c r="D49" s="1">
+        <v>329.60212203359299</v>
+      </c>
+      <c r="E49" s="1">
+        <v>492.29605624999999</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>19</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.7419433593984195E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="1">
+        <v>543.98183232421798</v>
+      </c>
+      <c r="C50" s="1">
+        <v>486.46258056640602</v>
+      </c>
+      <c r="D50" s="1">
+        <v>556.82387241484298</v>
+      </c>
+      <c r="E50" s="1">
+        <v>492.29605624999999</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>19</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.7419433593984195E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="1">
+        <v>598.05005185546804</v>
+      </c>
+      <c r="C51" s="1">
+        <v>486.46258056640602</v>
+      </c>
+      <c r="D51" s="1">
+        <v>616.26642601406195</v>
+      </c>
+      <c r="E51" s="1">
+        <v>492.27267558593701</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>19</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.7419433593984195E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="4">
+        <v>28.479277929687498</v>
+      </c>
+      <c r="C52" s="4">
+        <v>486.37</v>
+      </c>
+      <c r="D52" s="4">
+        <v>57.095776728125003</v>
+      </c>
+      <c r="E52" s="4">
+        <v>492.10605624999999</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>19</v>
+      </c>
+      <c r="H52" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.18999999999999773</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="1">
+        <v>650.94659092734298</v>
+      </c>
+      <c r="C53" s="1">
+        <v>476.27458203125002</v>
+      </c>
+      <c r="D53" s="1">
+        <v>653.10150879843695</v>
+      </c>
+      <c r="E53" s="1">
+        <v>482.04458203125</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>19</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="0"/>
+        <v>-10.285417968749982</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="1">
+        <v>28.4636908203125</v>
+      </c>
+      <c r="C54" s="1">
+        <v>474.56</v>
+      </c>
+      <c r="D54" s="1">
+        <v>39.025765526562502</v>
+      </c>
+      <c r="E54" s="1">
+        <v>480.37009501953099</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>19</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" s="1">
+        <v>137.655690820312</v>
+      </c>
+      <c r="C55" s="1">
+        <v>474.56</v>
+      </c>
+      <c r="D55" s="1">
+        <v>146.843822301562</v>
+      </c>
+      <c r="E55" s="1">
+        <v>480.19863681640601</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>19</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" s="1">
+        <v>275.28569082031203</v>
+      </c>
+      <c r="C56" s="1">
+        <v>474.56</v>
+      </c>
+      <c r="D56" s="1">
+        <v>288.85486184140598</v>
+      </c>
+      <c r="E56" s="1">
+        <v>480.29605624999999</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>19</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>125</v>
+      </c>
+      <c r="B57" s="1">
+        <v>453.078981347656</v>
+      </c>
+      <c r="C57" s="1">
+        <v>474.56</v>
+      </c>
+      <c r="D57" s="1">
+        <v>465.20332085234298</v>
+      </c>
+      <c r="E57" s="1">
+        <v>480.19474003906203</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>19</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="1">
+        <v>468.37189962031198</v>
+      </c>
+      <c r="C58" s="1">
+        <v>474.56</v>
+      </c>
+      <c r="D58" s="1">
+        <v>478.93397432656201</v>
+      </c>
+      <c r="E58" s="1">
+        <v>480.37009501953099</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>19</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1">
+        <v>530.423806640625</v>
+      </c>
+      <c r="C59" s="1">
+        <v>474.56</v>
+      </c>
+      <c r="D59" s="1">
+        <v>534.20757744140599</v>
+      </c>
+      <c r="E59" s="1">
+        <v>480.29605624999999</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>19</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="1">
+        <v>598.40465859375001</v>
+      </c>
+      <c r="C60" s="1">
+        <v>474.56</v>
+      </c>
+      <c r="D60" s="1">
+        <v>625.06615978593697</v>
+      </c>
+      <c r="E60" s="1">
+        <v>480.27267558593701</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>19</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="1">
+        <v>41.957077315625</v>
+      </c>
+      <c r="C61" s="1">
+        <v>474.46258056640602</v>
+      </c>
+      <c r="D61" s="1">
+        <v>73.187222614062506</v>
+      </c>
+      <c r="E61" s="1">
+        <v>480.27267558593701</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>19</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="0"/>
+        <v>-12.097419433593984</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="1">
+        <v>655.96841465156194</v>
+      </c>
+      <c r="C62" s="1">
+        <v>474.45868378906198</v>
+      </c>
+      <c r="D62" s="1">
+        <v>669.79452358359299</v>
+      </c>
+      <c r="E62" s="1">
+        <v>480.27267558593701</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>19</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="0"/>
+        <v>-12.101316210938023</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>40</v>
+      </c>
+      <c r="B63" s="1">
+        <v>584.23807753906203</v>
+      </c>
+      <c r="C63" s="1">
+        <v>474.34</v>
+      </c>
+      <c r="D63" s="1">
+        <v>592.56851848281201</v>
+      </c>
+      <c r="E63" s="1">
+        <v>480.076056249999</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>19</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="0"/>
+        <v>-12.220000000000027</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="1">
+        <v>628.01679959062403</v>
+      </c>
+      <c r="C64" s="1">
+        <v>472.88048896484298</v>
+      </c>
+      <c r="D64" s="1">
+        <v>648.18639442499898</v>
+      </c>
+      <c r="E64" s="1">
+        <v>480.37009501953099</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>19</v>
+      </c>
+      <c r="H64" s="1">
+        <f>C64-$I$41</f>
+        <v>-13.67951103515702</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="1">
+        <v>137.69465859375001</v>
+      </c>
+      <c r="C65" s="1">
+        <v>456.52</v>
+      </c>
+      <c r="D65" s="1">
+        <v>169.51683348046799</v>
+      </c>
+      <c r="E65" s="1">
+        <v>462.23267558593699</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>19</v>
+      </c>
+      <c r="H65" s="1">
+        <f>C65-$I$65</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <f>C65</f>
+        <v>456.52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="1">
+        <v>275.25451660156199</v>
+      </c>
+      <c r="C66" s="1">
+        <v>456.52</v>
+      </c>
+      <c r="D66" s="1">
+        <v>292.99959892109302</v>
+      </c>
+      <c r="E66" s="1">
+        <v>462.23267558593699</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>19</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" ref="H66:H91" si="1">C66-$I$65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="1">
+        <v>416.02428447265601</v>
+      </c>
+      <c r="C67" s="1">
+        <v>456.52</v>
+      </c>
+      <c r="D67" s="1">
+        <v>447.549618448437</v>
+      </c>
+      <c r="E67" s="1">
+        <v>462.23267558593699</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>19</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1">
+        <v>508.72898134765597</v>
+      </c>
+      <c r="C68" s="1">
+        <v>456.52</v>
+      </c>
+      <c r="D68" s="1">
+        <v>510.83324111328102</v>
+      </c>
+      <c r="E68" s="1">
+        <v>462.25605624999997</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>19</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="1">
+        <v>619.29880462031201</v>
+      </c>
+      <c r="C69" s="1">
+        <v>456.52</v>
+      </c>
+      <c r="D69" s="1">
+        <v>635.11806840234306</v>
+      </c>
+      <c r="E69" s="1">
+        <v>462.23267558593699</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>19</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" s="1">
+        <v>171.90926772421801</v>
+      </c>
+      <c r="C70" s="1">
+        <v>456.422580566406</v>
+      </c>
+      <c r="D70" s="1">
+        <v>189.156653641406</v>
+      </c>
+      <c r="E70" s="1">
+        <v>462.25605624999997</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>19</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" si="1"/>
+        <v>-9.7419433593984195E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="1">
+        <v>192.19236788906201</v>
+      </c>
+      <c r="C71" s="1">
+        <v>456.422580566406</v>
+      </c>
+      <c r="D71" s="1">
+        <v>212.35697484843701</v>
+      </c>
+      <c r="E71" s="1">
+        <v>462.23267558593699</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>19</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="1"/>
+        <v>-9.7419433593984195E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="1">
+        <v>215.28024368906199</v>
+      </c>
+      <c r="C72" s="1">
+        <v>456.422580566406</v>
+      </c>
+      <c r="D72" s="1">
+        <v>230.937900321093</v>
+      </c>
+      <c r="E72" s="1">
+        <v>462.23267558593699</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>19</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" si="1"/>
+        <v>-9.7419433593984195E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" s="1">
+        <v>296.06536511562399</v>
+      </c>
+      <c r="C73" s="1">
+        <v>456.422580566406</v>
+      </c>
+      <c r="D73" s="1">
+        <v>310.29474374140602</v>
+      </c>
+      <c r="E73" s="1">
+        <v>462.19258056640598</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>19</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="1"/>
+        <v>-9.7419433593984195E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" s="1">
+        <v>313.70155588906198</v>
+      </c>
+      <c r="C74" s="1">
+        <v>456.422580566406</v>
+      </c>
+      <c r="D74" s="1">
+        <v>331.33160534140598</v>
+      </c>
+      <c r="E74" s="1">
+        <v>462.19258056640598</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>19</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="1"/>
+        <v>-9.7419433593984195E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" s="1">
+        <v>334.47066212421799</v>
+      </c>
+      <c r="C75" s="1">
+        <v>456.422580566406</v>
+      </c>
+      <c r="D75" s="1">
+        <v>342.79573724140602</v>
+      </c>
+      <c r="E75" s="1">
+        <v>462.25605624999997</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>19</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="1"/>
+        <v>-9.7419433593984195E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" s="1">
+        <v>543.98183232421798</v>
+      </c>
+      <c r="C76" s="1">
+        <v>456.422580566406</v>
+      </c>
+      <c r="D76" s="1">
+        <v>556.82387241484298</v>
+      </c>
+      <c r="E76" s="1">
+        <v>462.25605624999997</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>19</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" si="1"/>
+        <v>-9.7419433593984195E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" s="1">
+        <v>598.05005185546804</v>
+      </c>
+      <c r="C77" s="1">
+        <v>456.422580566406</v>
+      </c>
+      <c r="D77" s="1">
+        <v>616.26642601406195</v>
+      </c>
+      <c r="E77" s="1">
+        <v>462.23267558593699</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1">
+        <v>19</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="1"/>
+        <v>-9.7419433593984195E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" s="4">
+        <v>28.0467356445312</v>
+      </c>
+      <c r="C78" s="4">
+        <v>456.33</v>
+      </c>
+      <c r="D78" s="4">
+        <v>54.143266470312497</v>
+      </c>
+      <c r="E78" s="4">
+        <v>462.14009501953097</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0</v>
+      </c>
+      <c r="G78" s="4">
+        <v>19</v>
+      </c>
+      <c r="H78" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.18999999999999773</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" s="1">
+        <v>27.836309667968699</v>
+      </c>
+      <c r="C79" s="1">
+        <v>444.52</v>
+      </c>
+      <c r="D79" s="1">
+        <v>38.682599726562501</v>
+      </c>
+      <c r="E79" s="1">
+        <v>450.33009501953097</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>19</v>
+      </c>
+      <c r="H79" s="1">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="1">
+        <v>137.655690820312</v>
+      </c>
+      <c r="C80" s="1">
+        <v>444.52</v>
+      </c>
+      <c r="D80" s="1">
+        <v>155.701043214843</v>
+      </c>
+      <c r="E80" s="1">
+        <v>450.25605624999997</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>19</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="1">
+        <v>275.28569082031203</v>
+      </c>
+      <c r="C81" s="1">
+        <v>444.52</v>
+      </c>
+      <c r="D81" s="1">
+        <v>288.85486184140598</v>
+      </c>
+      <c r="E81" s="1">
+        <v>450.25605624999997</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>19</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>240</v>
+      </c>
+      <c r="B82" s="1">
+        <v>452.803806640625</v>
+      </c>
+      <c r="C82" s="1">
+        <v>444.52</v>
+      </c>
+      <c r="D82" s="1">
+        <v>465.50097241484298</v>
+      </c>
+      <c r="E82" s="1">
+        <v>450.25605624999997</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1">
+        <v>19</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" s="1">
+        <v>468.10451846796798</v>
+      </c>
+      <c r="C83" s="1">
+        <v>444.52</v>
+      </c>
+      <c r="D83" s="1">
+        <v>478.95080852656201</v>
+      </c>
+      <c r="E83" s="1">
+        <v>450.33009501953097</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>19</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>4</v>
+      </c>
+      <c r="B84" s="1">
+        <v>530.291316210937</v>
+      </c>
+      <c r="C84" s="1">
+        <v>444.52</v>
+      </c>
+      <c r="D84" s="1">
+        <v>534.24264843749995</v>
+      </c>
+      <c r="E84" s="1">
+        <v>450.23267558593699</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>19</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" s="1">
+        <v>41.613911515624999</v>
+      </c>
+      <c r="C85" s="1">
+        <v>444.422580566406</v>
+      </c>
+      <c r="D85" s="1">
+        <v>72.844056814062498</v>
+      </c>
+      <c r="E85" s="1">
+        <v>450.23267558593699</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>19</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" si="1"/>
+        <v>-12.097419433593984</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86" s="1">
+        <v>598.08512285156201</v>
+      </c>
+      <c r="C86" s="1">
+        <v>444.41868378906202</v>
+      </c>
+      <c r="D86" s="1">
+        <v>611.95201538359299</v>
+      </c>
+      <c r="E86" s="1">
+        <v>450.23267558593699</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>19</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="1"/>
+        <v>-12.101316210937966</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>60</v>
+      </c>
+      <c r="B87" s="1">
+        <v>584.42901962890596</v>
+      </c>
+      <c r="C87" s="1">
+        <v>444.20258056640603</v>
+      </c>
+      <c r="D87" s="1">
+        <v>592.56851848281201</v>
+      </c>
+      <c r="E87" s="1">
+        <v>450.03605625</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="1">
+        <v>19</v>
+      </c>
+      <c r="H87" s="1">
+        <f t="shared" si="1"/>
+        <v>-12.317419433593955</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" s="1">
+        <v>137.65753466796801</v>
+      </c>
+      <c r="C88" s="1">
+        <v>426.49</v>
+      </c>
+      <c r="D88" s="1">
+        <v>152.319933880859</v>
+      </c>
+      <c r="E88" s="1">
+        <v>432.26</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>19</v>
+      </c>
+      <c r="H88" s="1">
+        <f>C88-$I$88</f>
+        <v>0</v>
+      </c>
+      <c r="I88" s="1">
+        <f>C88</f>
+        <v>426.49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" s="1">
+        <v>155.939812667968</v>
+      </c>
+      <c r="C89" s="1">
+        <v>426.49</v>
+      </c>
+      <c r="D89" s="1">
+        <v>181.380990285156</v>
+      </c>
+      <c r="E89" s="1">
+        <v>432.21978369140601</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="1">
+        <v>19</v>
+      </c>
+      <c r="H89" s="1">
+        <f t="shared" ref="H89:H122" si="2">C89-$I$88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90" s="1">
+        <v>275.28753466796798</v>
+      </c>
+      <c r="C90" s="1">
+        <v>426.49</v>
+      </c>
+      <c r="D90" s="1">
+        <v>289.94993388085902</v>
+      </c>
+      <c r="E90" s="1">
+        <v>432.26</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>19</v>
+      </c>
+      <c r="H90" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="1">
+        <v>293.56981266796799</v>
+      </c>
+      <c r="C91" s="1">
+        <v>426.49</v>
+      </c>
+      <c r="D91" s="1">
+        <v>319.01099028515603</v>
+      </c>
+      <c r="E91" s="1">
+        <v>432.21978369140601</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>19</v>
+      </c>
+      <c r="H91" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="1">
+        <v>416.02651342773402</v>
+      </c>
+      <c r="C92" s="1">
+        <v>426.49</v>
+      </c>
+      <c r="D92" s="1">
+        <v>447.57421778515601</v>
+      </c>
+      <c r="E92" s="1">
+        <v>432.21978369140601</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="1">
+        <v>19</v>
+      </c>
+      <c r="H92" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>1</v>
+      </c>
+      <c r="B93" s="1">
+        <v>508.73158374023399</v>
+      </c>
+      <c r="C93" s="1">
+        <v>426.49</v>
+      </c>
+      <c r="D93" s="1">
+        <v>510.842145263671</v>
+      </c>
+      <c r="E93" s="1">
+        <v>432.24323437499999</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <v>19</v>
+      </c>
+      <c r="H93" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B94" s="1">
+        <v>184.02044289257799</v>
+      </c>
+      <c r="C94" s="1">
+        <v>426.39228881835902</v>
+      </c>
+      <c r="D94" s="1">
+        <v>192.52009625976501</v>
+      </c>
+      <c r="E94" s="1">
+        <v>432.14161474609301</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>19</v>
+      </c>
+      <c r="H94" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.7711181640988798E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95" s="1">
+        <v>321.65044289257798</v>
+      </c>
+      <c r="C95" s="1">
+        <v>426.39228881835902</v>
+      </c>
+      <c r="D95" s="1">
+        <v>330.048476630859</v>
+      </c>
+      <c r="E95" s="1">
+        <v>432.24323437499999</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>19</v>
+      </c>
+      <c r="H95" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.7711181640988798E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" s="1">
+        <v>543.98207739257805</v>
+      </c>
+      <c r="C96" s="1">
+        <v>426.39228881835902</v>
+      </c>
+      <c r="D96" s="1">
+        <v>556.83198915624905</v>
+      </c>
+      <c r="E96" s="1">
+        <v>432.21978369140601</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1">
+        <v>19</v>
+      </c>
+      <c r="H96" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.7711181640988798E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" s="1">
+        <v>598.10957714843698</v>
+      </c>
+      <c r="C97" s="1">
+        <v>426.39228881835902</v>
+      </c>
+      <c r="D97" s="1">
+        <v>637.44387775390601</v>
+      </c>
+      <c r="E97" s="1">
+        <v>432.21978369140601</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1">
+        <v>19</v>
+      </c>
+      <c r="H97" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.7711181640988798E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B98" s="4">
+        <v>28.0473308105468</v>
+      </c>
+      <c r="C98" s="4">
+        <v>426.29</v>
+      </c>
+      <c r="D98" s="4">
+        <v>63.528496496093702</v>
+      </c>
+      <c r="E98" s="4">
+        <v>432.043234375</v>
+      </c>
+      <c r="F98" s="4">
+        <v>0</v>
+      </c>
+      <c r="G98" s="4">
+        <v>19</v>
+      </c>
+      <c r="H98" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.19999999999998863</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" s="1">
+        <v>43.770138667968702</v>
+      </c>
+      <c r="C99" s="1">
+        <v>414.48</v>
+      </c>
+      <c r="D99" s="1">
+        <v>85.703869380859302</v>
+      </c>
+      <c r="E99" s="1">
+        <v>420.25</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
+        <v>19</v>
+      </c>
+      <c r="H99" s="1">
+        <f t="shared" si="2"/>
+        <v>-12.009999999999991</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B100" s="1">
+        <v>88.742515158203105</v>
+      </c>
+      <c r="C100" s="1">
+        <v>414.48</v>
+      </c>
+      <c r="D100" s="1">
+        <v>121.29850510742099</v>
+      </c>
+      <c r="E100" s="1">
+        <v>420.30749487304598</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>19</v>
+      </c>
+      <c r="H100" s="1">
+        <f t="shared" si="2"/>
+        <v>-12.009999999999991</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B101" s="1">
+        <v>137.65753466796801</v>
+      </c>
+      <c r="C101" s="1">
+        <v>414.48</v>
+      </c>
+      <c r="D101" s="1">
+        <v>150.20386926367101</v>
+      </c>
+      <c r="E101" s="1">
+        <v>420.23323437499999</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1">
+        <v>19</v>
+      </c>
+      <c r="H101" s="1">
+        <f t="shared" si="2"/>
+        <v>-12.009999999999991</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B102" s="1">
+        <v>275.28753466796798</v>
+      </c>
+      <c r="C102" s="1">
+        <v>414.48</v>
+      </c>
+      <c r="D102" s="1">
+        <v>287.83386926367098</v>
+      </c>
+      <c r="E102" s="1">
+        <v>420.23323437499999</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>19</v>
+      </c>
+      <c r="H102" s="1">
+        <f t="shared" si="2"/>
+        <v>-12.009999999999991</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" s="1">
+        <v>468.447534667968</v>
+      </c>
+      <c r="C103" s="1">
+        <v>414.48</v>
+      </c>
+      <c r="D103" s="1">
+        <v>479.021758277343</v>
+      </c>
+      <c r="E103" s="1">
+        <v>420.30749487304598</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>19</v>
+      </c>
+      <c r="H103" s="1">
+        <f t="shared" si="2"/>
+        <v>-12.009999999999991</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" s="1">
+        <v>642.89888196874995</v>
+      </c>
+      <c r="C104" s="1">
+        <v>414.48</v>
+      </c>
+      <c r="D104" s="1">
+        <v>653.51663234570299</v>
+      </c>
+      <c r="E104" s="1">
+        <v>420.31140332031202</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="1">
+        <v>19</v>
+      </c>
+      <c r="H104" s="1">
+        <f t="shared" si="2"/>
+        <v>-12.009999999999991</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B105" s="1">
+        <v>28.207577148437402</v>
+      </c>
+      <c r="C105" s="1">
+        <v>414.38228881835897</v>
+      </c>
+      <c r="D105" s="1">
+        <v>40.874979806640603</v>
+      </c>
+      <c r="E105" s="1">
+        <v>420.20978369140602</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="1">
+        <v>19</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="2"/>
+        <v>-12.107711181641037</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
+        <v>530.51440112304601</v>
+      </c>
+      <c r="C106" s="1">
+        <v>414.38228881835897</v>
+      </c>
+      <c r="D106" s="1">
+        <v>534.28996118164002</v>
+      </c>
+      <c r="E106" s="1">
+        <v>420.23323437499999</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>19</v>
+      </c>
+      <c r="H106" s="1">
+        <f t="shared" si="2"/>
+        <v>-12.107711181641037</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" s="1">
+        <v>598.10957714843698</v>
+      </c>
+      <c r="C107" s="1">
+        <v>414.38228881835897</v>
+      </c>
+      <c r="D107" s="1">
+        <v>640.06513263085901</v>
+      </c>
+      <c r="E107" s="1">
+        <v>420.23323437499999</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>19</v>
+      </c>
+      <c r="H107" s="1">
+        <f t="shared" si="2"/>
+        <v>-12.107711181641037</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B108" s="1">
+        <v>656.486395648437</v>
+      </c>
+      <c r="C108" s="1">
+        <v>414.38228881835897</v>
+      </c>
+      <c r="D108" s="1">
+        <v>716.08499476367194</v>
+      </c>
+      <c r="E108" s="1">
+        <v>420.23323437499999</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>19</v>
+      </c>
+      <c r="H108" s="1">
+        <f t="shared" si="2"/>
+        <v>-12.107711181641037</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>40</v>
+      </c>
+      <c r="B109" s="1">
+        <v>584.23852099609303</v>
+      </c>
+      <c r="C109" s="1">
+        <v>414.29</v>
+      </c>
+      <c r="D109" s="1">
+        <v>592.58057026171798</v>
+      </c>
+      <c r="E109" s="1">
+        <v>420.043234375</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>19</v>
+      </c>
+      <c r="H109" s="1">
+        <f t="shared" si="2"/>
+        <v>-12.199999999999989</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B110" s="1">
+        <v>137.626267089843</v>
+      </c>
+      <c r="C110" s="1">
+        <v>396.45</v>
+      </c>
+      <c r="D110" s="1">
+        <v>155.36045571289</v>
+      </c>
+      <c r="E110" s="1">
+        <v>402.17978369140599</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1">
+        <v>19</v>
+      </c>
+      <c r="H110" s="1">
+        <f>C110-$I$110</f>
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <f>C110</f>
+        <v>396.45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B111" s="1">
+        <v>158.69336066796799</v>
+      </c>
+      <c r="C111" s="1">
+        <v>396.45</v>
+      </c>
+      <c r="D111" s="1">
+        <v>175.557184986328</v>
+      </c>
+      <c r="E111" s="1">
+        <v>402.17978369140599</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
+        <v>19</v>
+      </c>
+      <c r="H111" s="1">
+        <f t="shared" ref="H111:H144" si="3">C111-$I$110</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" s="1">
+        <v>178.83268266796799</v>
+      </c>
+      <c r="C112" s="1">
+        <v>396.45</v>
+      </c>
+      <c r="D112" s="1">
+        <v>204.27386028515599</v>
+      </c>
+      <c r="E112" s="1">
+        <v>402.17978369140599</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>19</v>
+      </c>
+      <c r="H112" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B113" s="1">
+        <v>275.29926000976502</v>
+      </c>
+      <c r="C113" s="1">
+        <v>396.45</v>
+      </c>
+      <c r="D113" s="1">
+        <v>290.12812780859298</v>
+      </c>
+      <c r="E113" s="1">
+        <v>402.17978369140599</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+      <c r="G113" s="1">
+        <v>19</v>
+      </c>
+      <c r="H113" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" s="1">
+        <v>293.129565167968</v>
+      </c>
+      <c r="C114" s="1">
+        <v>396.45</v>
+      </c>
+      <c r="D114" s="1">
+        <v>318.57074278515603</v>
+      </c>
+      <c r="E114" s="1">
+        <v>402.17978369140599</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0</v>
+      </c>
+      <c r="G114" s="1">
+        <v>19</v>
+      </c>
+      <c r="H114" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" s="1">
+        <v>416.02651342773402</v>
+      </c>
+      <c r="C115" s="1">
+        <v>396.45</v>
+      </c>
+      <c r="D115" s="1">
+        <v>447.57421778515601</v>
+      </c>
+      <c r="E115" s="1">
+        <v>402.17978369140599</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0</v>
+      </c>
+      <c r="G115" s="1">
+        <v>19</v>
+      </c>
+      <c r="H115" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>1</v>
+      </c>
+      <c r="B116" s="1">
+        <v>508.73158374023399</v>
+      </c>
+      <c r="C116" s="1">
+        <v>396.45</v>
+      </c>
+      <c r="D116" s="1">
+        <v>510.842145263671</v>
+      </c>
+      <c r="E116" s="1">
+        <v>402.203234374999</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1">
+        <v>19</v>
+      </c>
+      <c r="H116" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B117" s="1">
+        <v>619.29930216796799</v>
+      </c>
+      <c r="C117" s="1">
+        <v>396.45</v>
+      </c>
+      <c r="D117" s="1">
+        <v>635.12591838476499</v>
+      </c>
+      <c r="E117" s="1">
+        <v>402.17978369140599</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1">
+        <v>19</v>
+      </c>
+      <c r="H117" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B118" s="1">
+        <v>206.86528589257799</v>
+      </c>
+      <c r="C118" s="1">
+        <v>396.352288818359</v>
+      </c>
+      <c r="D118" s="1">
+        <v>215.31803789257799</v>
+      </c>
+      <c r="E118" s="1">
+        <v>402.203234374999</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0</v>
+      </c>
+      <c r="G118" s="1">
+        <v>19</v>
+      </c>
+      <c r="H118" s="1">
+        <f t="shared" si="3"/>
+        <v>-9.7711181640988798E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" s="1">
+        <v>321.162168392578</v>
+      </c>
+      <c r="C119" s="1">
+        <v>396.352288818359</v>
+      </c>
+      <c r="D119" s="1">
+        <v>329.63055418163998</v>
+      </c>
+      <c r="E119" s="1">
+        <v>402.203234374999</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
+      <c r="G119" s="1">
+        <v>19</v>
+      </c>
+      <c r="H119" s="1">
+        <f t="shared" si="3"/>
+        <v>-9.7711181640988798E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B120" s="1">
+        <v>543.98207739257805</v>
+      </c>
+      <c r="C120" s="1">
+        <v>396.352288818359</v>
+      </c>
+      <c r="D120" s="1">
+        <v>556.83589760351504</v>
+      </c>
+      <c r="E120" s="1">
+        <v>402.203234374999</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0</v>
+      </c>
+      <c r="G120" s="1">
+        <v>19</v>
+      </c>
+      <c r="H120" s="1">
+        <f t="shared" si="3"/>
+        <v>-9.7711181640988798E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B121" s="1">
+        <v>598.050950439453</v>
+      </c>
+      <c r="C121" s="1">
+        <v>396.352288818359</v>
+      </c>
+      <c r="D121" s="1">
+        <v>616.28185580859304</v>
+      </c>
+      <c r="E121" s="1">
+        <v>402.17978369140599</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0</v>
+      </c>
+      <c r="G121" s="1">
+        <v>19</v>
+      </c>
+      <c r="H121" s="1">
+        <f t="shared" si="3"/>
+        <v>-9.7711181640988798E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B122" s="4">
+        <v>28.188034912109298</v>
+      </c>
+      <c r="C122" s="4">
+        <v>396.162288818359</v>
+      </c>
+      <c r="D122" s="4">
+        <v>51.372099867187501</v>
+      </c>
+      <c r="E122" s="4">
+        <v>402.013234374999</v>
+      </c>
+      <c r="F122" s="4">
+        <v>0</v>
+      </c>
+      <c r="G122" s="4">
+        <v>19</v>
+      </c>
+      <c r="H122" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.28771118164098652</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B123" s="1">
+        <v>137.65753466796801</v>
+      </c>
+      <c r="C123" s="1">
+        <v>384.44</v>
+      </c>
+      <c r="D123" s="1">
+        <v>150.20386926367101</v>
+      </c>
+      <c r="E123" s="1">
+        <v>390.19323437499997</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0</v>
+      </c>
+      <c r="G123" s="1">
+        <v>19</v>
+      </c>
+      <c r="H123" s="1">
+        <f t="shared" si="3"/>
+        <v>-12.009999999999991</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B124" s="1">
+        <v>275.28753466796798</v>
+      </c>
+      <c r="C124" s="1">
+        <v>384.44</v>
+      </c>
+      <c r="D124" s="1">
+        <v>288.88133313085899</v>
+      </c>
+      <c r="E124" s="1">
+        <v>390.19323437499997</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
+      <c r="G124" s="1">
+        <v>19</v>
+      </c>
+      <c r="H124" s="1">
+        <f t="shared" si="3"/>
+        <v>-12.009999999999991</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>125</v>
+      </c>
+      <c r="B125" s="1">
+        <v>453.08158374023401</v>
+      </c>
+      <c r="C125" s="1">
+        <v>384.44</v>
+      </c>
+      <c r="D125" s="1">
+        <v>465.21021475976499</v>
+      </c>
+      <c r="E125" s="1">
+        <v>390.091614746093</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0</v>
+      </c>
+      <c r="G125" s="1">
+        <v>19</v>
+      </c>
+      <c r="H125" s="1">
+        <f t="shared" si="3"/>
+        <v>-12.009999999999991</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B126" s="1">
+        <v>468.37227366796799</v>
+      </c>
+      <c r="C126" s="1">
+        <v>384.44</v>
+      </c>
+      <c r="D126" s="1">
+        <v>478.94997027734303</v>
+      </c>
+      <c r="E126" s="1">
+        <v>390.26749487304602</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+      <c r="G126" s="1">
+        <v>19</v>
+      </c>
+      <c r="H126" s="1">
+        <f t="shared" si="3"/>
+        <v>-12.009999999999991</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>2</v>
+      </c>
+      <c r="B127" s="1">
+        <v>530.424506835937</v>
+      </c>
+      <c r="C127" s="1">
+        <v>384.44</v>
+      </c>
+      <c r="D127" s="1">
+        <v>534.219609130859</v>
+      </c>
+      <c r="E127" s="1">
+        <v>390.19323437499997</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0</v>
+      </c>
+      <c r="G127" s="1">
+        <v>19</v>
+      </c>
+      <c r="H127" s="1">
+        <f t="shared" si="3"/>
+        <v>-12.009999999999991</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B128" s="1">
+        <v>598.36753466796802</v>
+      </c>
+      <c r="C128" s="1">
+        <v>384.44</v>
+      </c>
+      <c r="D128" s="1">
+        <v>618.60538080664003</v>
+      </c>
+      <c r="E128" s="1">
+        <v>390.26749487304602</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0</v>
+      </c>
+      <c r="G128" s="1">
+        <v>19</v>
+      </c>
+      <c r="H128" s="1">
+        <f t="shared" si="3"/>
+        <v>-12.009999999999991</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>262</v>
+      </c>
+      <c r="B129" s="1">
+        <v>621.21356583593695</v>
+      </c>
+      <c r="C129" s="1">
+        <v>384.44</v>
+      </c>
+      <c r="D129" s="1">
+        <v>633.84563613085902</v>
+      </c>
+      <c r="E129" s="1">
+        <v>390.19323437499997</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0</v>
+      </c>
+      <c r="G129" s="1">
+        <v>19</v>
+      </c>
+      <c r="H129" s="1">
+        <f t="shared" si="3"/>
+        <v>-12.009999999999991</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B130" s="1">
+        <v>28.2466616210937</v>
+      </c>
+      <c r="C130" s="1">
+        <v>384.34228881835901</v>
+      </c>
+      <c r="D130" s="1">
+        <v>66.593844785156193</v>
+      </c>
+      <c r="E130" s="1">
+        <v>390.169783691406</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+      <c r="G130" s="1">
+        <v>19</v>
+      </c>
+      <c r="H130" s="1">
+        <f t="shared" si="3"/>
+        <v>-12.10771118164098</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" s="1">
+        <v>636.92245962109303</v>
+      </c>
+      <c r="C131" s="1">
+        <v>384.34228881835901</v>
+      </c>
+      <c r="D131" s="1">
+        <v>675.22161578515602</v>
+      </c>
+      <c r="E131" s="1">
+        <v>390.169783691406</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0</v>
+      </c>
+      <c r="G131" s="1">
+        <v>19</v>
+      </c>
+      <c r="H131" s="1">
+        <f t="shared" si="3"/>
+        <v>-12.10771118164098</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>40</v>
+      </c>
+      <c r="B132" s="1">
+        <v>584.23852099609303</v>
+      </c>
+      <c r="C132" s="1">
+        <v>384.25</v>
+      </c>
+      <c r="D132" s="1">
+        <v>592.58057026171798</v>
+      </c>
+      <c r="E132" s="1">
+        <v>390.00323437499998</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0</v>
+      </c>
+      <c r="G132" s="1">
+        <v>19</v>
+      </c>
+      <c r="H132" s="1">
+        <f t="shared" si="3"/>
+        <v>-12.199999999999989</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B133" s="1">
+        <v>330.77272754296803</v>
+      </c>
+      <c r="C133" s="1">
+        <v>370.111299560546</v>
+      </c>
+      <c r="D133" s="1">
+        <v>341.16422572460903</v>
+      </c>
+      <c r="E133" s="1">
+        <v>375.88129956054598</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0</v>
+      </c>
+      <c r="G133" s="1">
+        <v>19</v>
+      </c>
+      <c r="H133" s="1">
+        <f>C133-$I$133</f>
+        <v>0</v>
+      </c>
+      <c r="I133" s="1">
+        <f>C133</f>
+        <v>370.111299560546</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B134" s="5">
+        <v>137.626267089843</v>
+      </c>
+      <c r="C134" s="5">
+        <v>366.41</v>
+      </c>
+      <c r="D134" s="5">
+        <v>155.36045571289</v>
+      </c>
+      <c r="E134" s="5">
+        <v>372.13978369140602</v>
+      </c>
+      <c r="F134" s="5">
+        <v>0</v>
+      </c>
+      <c r="G134" s="5">
+        <v>19</v>
+      </c>
+      <c r="H134" s="5">
+        <f t="shared" ref="H134:H167" si="4">C134-$I$133</f>
+        <v>-3.7012995605459764</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B135" s="5">
+        <v>158.69336066796799</v>
+      </c>
+      <c r="C135" s="5">
+        <v>366.41</v>
+      </c>
+      <c r="D135" s="5">
+        <v>175.557184986328</v>
+      </c>
+      <c r="E135" s="5">
+        <v>372.13978369140602</v>
+      </c>
+      <c r="F135" s="5">
+        <v>0</v>
+      </c>
+      <c r="G135" s="5">
+        <v>19</v>
+      </c>
+      <c r="H135" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.7012995605459764</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136" s="5">
+        <v>178.83268266796799</v>
+      </c>
+      <c r="C136" s="5">
+        <v>366.41</v>
+      </c>
+      <c r="D136" s="5">
+        <v>204.27386028515599</v>
+      </c>
+      <c r="E136" s="5">
+        <v>372.13978369140602</v>
+      </c>
+      <c r="F136" s="5">
+        <v>0</v>
+      </c>
+      <c r="G136" s="5">
+        <v>19</v>
+      </c>
+      <c r="H136" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.7012995605459764</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B137" s="5">
+        <v>274.85760546875002</v>
+      </c>
+      <c r="C137" s="5">
+        <v>366.41</v>
+      </c>
+      <c r="D137" s="5">
+        <v>298.83492888085902</v>
+      </c>
+      <c r="E137" s="5">
+        <v>372.18</v>
+      </c>
+      <c r="F137" s="5">
+        <v>0</v>
+      </c>
+      <c r="G137" s="5">
+        <v>19</v>
+      </c>
+      <c r="H137" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.7012995605459764</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B138" s="5">
+        <v>302.454807667968</v>
+      </c>
+      <c r="C138" s="5">
+        <v>366.41</v>
+      </c>
+      <c r="D138" s="5">
+        <v>327.89598528515597</v>
+      </c>
+      <c r="E138" s="5">
+        <v>372.13978369140602</v>
+      </c>
+      <c r="F138" s="5">
+        <v>0</v>
+      </c>
+      <c r="G138" s="5">
+        <v>19</v>
+      </c>
+      <c r="H138" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.7012995605459764</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B139" s="5">
+        <v>416.02651342773402</v>
+      </c>
+      <c r="C139" s="5">
+        <v>366.41</v>
+      </c>
+      <c r="D139" s="5">
+        <v>447.57421778515601</v>
+      </c>
+      <c r="E139" s="5">
+        <v>372.13978369140602</v>
+      </c>
+      <c r="F139" s="5">
+        <v>0</v>
+      </c>
+      <c r="G139" s="5">
+        <v>19</v>
+      </c>
+      <c r="H139" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.7012995605459764</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="5">
+        <v>1</v>
+      </c>
+      <c r="B140" s="5">
+        <v>508.73158374023399</v>
+      </c>
+      <c r="C140" s="5">
+        <v>366.41</v>
+      </c>
+      <c r="D140" s="5">
+        <v>510.842145263671</v>
+      </c>
+      <c r="E140" s="5">
+        <v>372.163234375</v>
+      </c>
+      <c r="F140" s="5">
+        <v>0</v>
+      </c>
+      <c r="G140" s="5">
+        <v>19</v>
+      </c>
+      <c r="H140" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.7012995605459764</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B141" s="5">
+        <v>619.29930216796799</v>
+      </c>
+      <c r="C141" s="5">
+        <v>366.41</v>
+      </c>
+      <c r="D141" s="5">
+        <v>635.12591838476499</v>
+      </c>
+      <c r="E141" s="5">
+        <v>372.13978369140602</v>
+      </c>
+      <c r="F141" s="5">
+        <v>0</v>
+      </c>
+      <c r="G141" s="5">
+        <v>19</v>
+      </c>
+      <c r="H141" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.7012995605459764</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142" s="5">
+        <v>206.86528589257799</v>
+      </c>
+      <c r="C142" s="5">
+        <v>366.31228881835898</v>
+      </c>
+      <c r="D142" s="5">
+        <v>215.31803789257799</v>
+      </c>
+      <c r="E142" s="5">
+        <v>372.163234375</v>
+      </c>
+      <c r="F142" s="5">
+        <v>0</v>
+      </c>
+      <c r="G142" s="5">
+        <v>19</v>
+      </c>
+      <c r="H142" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.7990107421870221</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B143" s="5">
+        <v>543.98207739257805</v>
+      </c>
+      <c r="C143" s="5">
+        <v>366.31228881835898</v>
+      </c>
+      <c r="D143" s="5">
+        <v>556.83589760351504</v>
+      </c>
+      <c r="E143" s="5">
+        <v>372.163234375</v>
+      </c>
+      <c r="F143" s="5">
+        <v>0</v>
+      </c>
+      <c r="G143" s="5">
+        <v>19</v>
+      </c>
+      <c r="H143" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.7990107421870221</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B144" s="5">
+        <v>598.050950439453</v>
+      </c>
+      <c r="C144" s="5">
+        <v>366.31228881835898</v>
+      </c>
+      <c r="D144" s="5">
+        <v>616.28185580859304</v>
+      </c>
+      <c r="E144" s="5">
+        <v>372.13978369140602</v>
+      </c>
+      <c r="F144" s="5">
+        <v>0</v>
+      </c>
+      <c r="G144" s="5">
+        <v>19</v>
+      </c>
+      <c r="H144" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.7990107421870221</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B145" s="4">
+        <v>28.188034912109298</v>
+      </c>
+      <c r="C145" s="4">
+        <v>366.12228881835898</v>
+      </c>
+      <c r="D145" s="4">
+        <v>65.846987414062497</v>
+      </c>
+      <c r="E145" s="4">
+        <v>371.973234375</v>
+      </c>
+      <c r="F145" s="4">
+        <v>0</v>
+      </c>
+      <c r="G145" s="4">
+        <v>19</v>
+      </c>
+      <c r="H145" s="4">
+        <f t="shared" si="4"/>
+        <v>-3.9890107421870198</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B146" s="5">
+        <v>137.65753466796801</v>
+      </c>
+      <c r="C146" s="5">
+        <v>354.4</v>
+      </c>
+      <c r="D146" s="5">
+        <v>150.20386926367101</v>
+      </c>
+      <c r="E146" s="5">
+        <v>360.15323437499899</v>
+      </c>
+      <c r="F146" s="5">
+        <v>0</v>
+      </c>
+      <c r="G146" s="5">
+        <v>19</v>
+      </c>
+      <c r="H146" s="5">
+        <f t="shared" si="4"/>
+        <v>-15.711299560546024</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B147" s="5">
+        <v>275.28753466796798</v>
+      </c>
+      <c r="C147" s="5">
+        <v>354.4</v>
+      </c>
+      <c r="D147" s="5">
+        <v>288.982952759765</v>
+      </c>
+      <c r="E147" s="5">
+        <v>360.05161474609298</v>
+      </c>
+      <c r="F147" s="5">
+        <v>0</v>
+      </c>
+      <c r="G147" s="5">
+        <v>19</v>
+      </c>
+      <c r="H147" s="5">
+        <f t="shared" si="4"/>
+        <v>-15.711299560546024</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="5">
+        <v>125</v>
+      </c>
+      <c r="B148" s="5">
+        <v>453.08158374023401</v>
+      </c>
+      <c r="C148" s="5">
+        <v>354.4</v>
+      </c>
+      <c r="D148" s="5">
+        <v>465.21021475976499</v>
+      </c>
+      <c r="E148" s="5">
+        <v>360.05161474609298</v>
+      </c>
+      <c r="F148" s="5">
+        <v>0</v>
+      </c>
+      <c r="G148" s="5">
+        <v>19</v>
+      </c>
+      <c r="H148" s="5">
+        <f t="shared" si="4"/>
+        <v>-15.711299560546024</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B149" s="5">
+        <v>468.37227366796799</v>
+      </c>
+      <c r="C149" s="5">
+        <v>354.4</v>
+      </c>
+      <c r="D149" s="5">
+        <v>478.94997027734303</v>
+      </c>
+      <c r="E149" s="5">
+        <v>360.227494873046</v>
+      </c>
+      <c r="F149" s="5">
+        <v>0</v>
+      </c>
+      <c r="G149" s="5">
+        <v>19</v>
+      </c>
+      <c r="H149" s="5">
+        <f t="shared" si="4"/>
+        <v>-15.711299560546024</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="5">
+        <v>2</v>
+      </c>
+      <c r="B150" s="5">
+        <v>530.424506835937</v>
+      </c>
+      <c r="C150" s="5">
+        <v>354.4</v>
+      </c>
+      <c r="D150" s="5">
+        <v>534.219609130859</v>
+      </c>
+      <c r="E150" s="5">
+        <v>360.15323437499899</v>
+      </c>
+      <c r="F150" s="5">
+        <v>0</v>
+      </c>
+      <c r="G150" s="5">
+        <v>19</v>
+      </c>
+      <c r="H150" s="5">
+        <f t="shared" si="4"/>
+        <v>-15.711299560546024</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B151" s="5">
+        <v>598.36753466796802</v>
+      </c>
+      <c r="C151" s="5">
+        <v>354.4</v>
+      </c>
+      <c r="D151" s="5">
+        <v>618.60538080664003</v>
+      </c>
+      <c r="E151" s="5">
+        <v>360.227494873046</v>
+      </c>
+      <c r="F151" s="5">
+        <v>0</v>
+      </c>
+      <c r="G151" s="5">
+        <v>19</v>
+      </c>
+      <c r="H151" s="5">
+        <f t="shared" si="4"/>
+        <v>-15.711299560546024</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="5">
+        <v>262</v>
+      </c>
+      <c r="B152" s="5">
+        <v>621.21356583593695</v>
+      </c>
+      <c r="C152" s="5">
+        <v>354.4</v>
+      </c>
+      <c r="D152" s="5">
+        <v>633.84563613085902</v>
+      </c>
+      <c r="E152" s="5">
+        <v>360.15323437499899</v>
+      </c>
+      <c r="F152" s="5">
+        <v>0</v>
+      </c>
+      <c r="G152" s="5">
+        <v>19</v>
+      </c>
+      <c r="H152" s="5">
+        <f t="shared" si="4"/>
+        <v>-15.711299560546024</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B153" s="5">
+        <v>28.2466616210937</v>
+      </c>
+      <c r="C153" s="5">
+        <v>354.30228881835899</v>
+      </c>
+      <c r="D153" s="5">
+        <v>66.593844785156193</v>
+      </c>
+      <c r="E153" s="5">
+        <v>360.12978369140598</v>
+      </c>
+      <c r="F153" s="5">
+        <v>0</v>
+      </c>
+      <c r="G153" s="5">
+        <v>19</v>
+      </c>
+      <c r="H153" s="5">
+        <f t="shared" si="4"/>
+        <v>-15.809010742187013</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B154" s="5">
+        <v>636.92245962109303</v>
+      </c>
+      <c r="C154" s="5">
+        <v>354.30228881835899</v>
+      </c>
+      <c r="D154" s="5">
+        <v>675.22161578515602</v>
+      </c>
+      <c r="E154" s="5">
+        <v>360.12978369140598</v>
+      </c>
+      <c r="F154" s="5">
+        <v>0</v>
+      </c>
+      <c r="G154" s="5">
+        <v>19</v>
+      </c>
+      <c r="H154" s="5">
+        <f t="shared" si="4"/>
+        <v>-15.809010742187013</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="5">
+        <v>40</v>
+      </c>
+      <c r="B155" s="5">
+        <v>584.23852099609303</v>
+      </c>
+      <c r="C155" s="5">
+        <v>354.21</v>
+      </c>
+      <c r="D155" s="5">
+        <v>592.58057026171798</v>
+      </c>
+      <c r="E155" s="5">
+        <v>359.96323437499899</v>
+      </c>
+      <c r="F155" s="5">
+        <v>0</v>
+      </c>
+      <c r="G155" s="5">
+        <v>19</v>
+      </c>
+      <c r="H155" s="5">
+        <f t="shared" si="4"/>
+        <v>-15.901299560546022</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B156" s="1">
+        <v>330.77272754296803</v>
+      </c>
+      <c r="C156" s="1">
+        <v>340.10129956054601</v>
+      </c>
+      <c r="D156" s="1">
+        <v>341.16422572460903</v>
+      </c>
+      <c r="E156" s="1">
+        <v>345.87129956054599</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0</v>
+      </c>
+      <c r="G156" s="1">
+        <v>19</v>
+      </c>
+      <c r="H156" s="1">
+        <f>C156-$I$156</f>
+        <v>0</v>
+      </c>
+      <c r="I156" s="1">
+        <f>C156</f>
+        <v>340.10129956054601</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B157" s="1">
+        <v>137.626267089843</v>
+      </c>
+      <c r="C157" s="1">
+        <v>336.4</v>
+      </c>
+      <c r="D157" s="1">
+        <v>160.20836863085901</v>
+      </c>
+      <c r="E157" s="1">
+        <v>342.15323437499899</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0</v>
+      </c>
+      <c r="G157" s="1">
+        <v>19</v>
+      </c>
+      <c r="H157" s="1">
+        <f t="shared" ref="H157:H195" si="5">C157-$I$156</f>
+        <v>-3.7012995605460333</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B158" s="1">
+        <v>163.47204716796799</v>
+      </c>
+      <c r="C158" s="1">
+        <v>336.4</v>
+      </c>
+      <c r="D158" s="1">
+        <v>180.33587148632799</v>
+      </c>
+      <c r="E158" s="1">
+        <v>342.12978369140598</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0</v>
+      </c>
+      <c r="G158" s="1">
+        <v>19</v>
+      </c>
+      <c r="H158" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.7012995605460333</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B159" s="1">
+        <v>183.61136916796801</v>
+      </c>
+      <c r="C159" s="1">
+        <v>336.4</v>
+      </c>
+      <c r="D159" s="1">
+        <v>209.05254678515601</v>
+      </c>
+      <c r="E159" s="1">
+        <v>342.12978369140598</v>
+      </c>
+      <c r="F159" s="1">
+        <v>0</v>
+      </c>
+      <c r="G159" s="1">
+        <v>19</v>
+      </c>
+      <c r="H159" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.7012995605460333</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B160" s="1">
+        <v>274.85760546875002</v>
+      </c>
+      <c r="C160" s="1">
+        <v>336.4</v>
+      </c>
+      <c r="D160" s="1">
+        <v>298.83492888085902</v>
+      </c>
+      <c r="E160" s="1">
+        <v>342.16999999999899</v>
+      </c>
+      <c r="F160" s="1">
+        <v>0</v>
+      </c>
+      <c r="G160" s="1">
+        <v>19</v>
+      </c>
+      <c r="H160" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.7012995605460333</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B161" s="1">
+        <v>302.454807667968</v>
+      </c>
+      <c r="C161" s="1">
+        <v>336.4</v>
+      </c>
+      <c r="D161" s="1">
+        <v>327.89598528515597</v>
+      </c>
+      <c r="E161" s="1">
+        <v>342.12978369140598</v>
+      </c>
+      <c r="F161" s="1">
+        <v>0</v>
+      </c>
+      <c r="G161" s="1">
+        <v>19</v>
+      </c>
+      <c r="H161" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.7012995605460333</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B162" s="1">
+        <v>416.02651342773402</v>
+      </c>
+      <c r="C162" s="1">
+        <v>336.4</v>
+      </c>
+      <c r="D162" s="1">
+        <v>447.57421778515601</v>
+      </c>
+      <c r="E162" s="1">
+        <v>342.12978369140598</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0</v>
+      </c>
+      <c r="G162" s="1">
+        <v>19</v>
+      </c>
+      <c r="H162" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.7012995605460333</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>1</v>
+      </c>
+      <c r="B163" s="1">
+        <v>508.73158374023399</v>
+      </c>
+      <c r="C163" s="1">
+        <v>336.4</v>
+      </c>
+      <c r="D163" s="1">
+        <v>510.842145263671</v>
+      </c>
+      <c r="E163" s="1">
+        <v>342.15323437499899</v>
+      </c>
+      <c r="F163" s="1">
+        <v>0</v>
+      </c>
+      <c r="G163" s="1">
+        <v>19</v>
+      </c>
+      <c r="H163" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.7012995605460333</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B164" s="1">
+        <v>619.29930216796799</v>
+      </c>
+      <c r="C164" s="1">
+        <v>336.4</v>
+      </c>
+      <c r="D164" s="1">
+        <v>635.12591838476499</v>
+      </c>
+      <c r="E164" s="1">
+        <v>342.12978369140598</v>
+      </c>
+      <c r="F164" s="1">
+        <v>0</v>
+      </c>
+      <c r="G164" s="1">
+        <v>19</v>
+      </c>
+      <c r="H164" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.7012995605460333</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B165" s="1">
+        <v>211.64397239257801</v>
+      </c>
+      <c r="C165" s="1">
+        <v>336.30228881835899</v>
+      </c>
+      <c r="D165" s="1">
+        <v>220.100632839843</v>
+      </c>
+      <c r="E165" s="1">
+        <v>342.05552319335902</v>
+      </c>
+      <c r="F165" s="1">
+        <v>0</v>
+      </c>
+      <c r="G165" s="1">
+        <v>19</v>
+      </c>
+      <c r="H165" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.7990107421870221</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B166" s="1">
+        <v>543.98207739257805</v>
+      </c>
+      <c r="C166" s="1">
+        <v>336.30228881835899</v>
+      </c>
+      <c r="D166" s="1">
+        <v>556.83589760351504</v>
+      </c>
+      <c r="E166" s="1">
+        <v>342.15323437499899</v>
+      </c>
+      <c r="F166" s="1">
+        <v>0</v>
+      </c>
+      <c r="G166" s="1">
+        <v>19</v>
+      </c>
+      <c r="H166" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.7990107421870221</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B167" s="1">
+        <v>598.050950439453</v>
+      </c>
+      <c r="C167" s="1">
+        <v>336.30228881835899</v>
+      </c>
+      <c r="D167" s="1">
+        <v>616.28185580859304</v>
+      </c>
+      <c r="E167" s="1">
+        <v>342.12978369140598</v>
+      </c>
+      <c r="F167" s="1">
+        <v>0</v>
+      </c>
+      <c r="G167" s="1">
+        <v>19</v>
+      </c>
+      <c r="H167" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.7990107421870221</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B168" s="4">
+        <v>28.188034912109298</v>
+      </c>
+      <c r="C168" s="4">
+        <v>336.18</v>
+      </c>
+      <c r="D168" s="4">
+        <v>65.628114367187493</v>
+      </c>
+      <c r="E168" s="4">
+        <v>341.93323437499998</v>
+      </c>
+      <c r="F168" s="4">
+        <v>0</v>
+      </c>
+      <c r="G168" s="4">
+        <v>19</v>
+      </c>
+      <c r="H168" s="4">
+        <f t="shared" si="5"/>
+        <v>-3.9212995605460037</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B169" s="1">
+        <v>28.477260009765601</v>
+      </c>
+      <c r="C169" s="1">
+        <v>324.37</v>
+      </c>
+      <c r="D169" s="1">
+        <v>67.921184744140604</v>
+      </c>
+      <c r="E169" s="1">
+        <v>330.19749487304603</v>
+      </c>
+      <c r="F169" s="1">
+        <v>0</v>
+      </c>
+      <c r="G169" s="1">
+        <v>19</v>
+      </c>
+      <c r="H169" s="1">
+        <f t="shared" si="5"/>
+        <v>-15.731299560546006</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B170" s="1">
+        <v>137.65753466796801</v>
+      </c>
+      <c r="C170" s="1">
+        <v>324.37</v>
+      </c>
+      <c r="D170" s="1">
+        <v>151.32168518163999</v>
+      </c>
+      <c r="E170" s="1">
+        <v>330.12323437499998</v>
+      </c>
+      <c r="F170" s="1">
+        <v>0</v>
+      </c>
+      <c r="G170" s="1">
+        <v>19</v>
+      </c>
+      <c r="H170" s="1">
+        <f t="shared" si="5"/>
+        <v>-15.731299560546006</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171" s="1">
+        <v>275.28753466796798</v>
+      </c>
+      <c r="C171" s="1">
+        <v>324.37</v>
+      </c>
+      <c r="D171" s="1">
+        <v>288.982952759765</v>
+      </c>
+      <c r="E171" s="1">
+        <v>330.02161474609301</v>
+      </c>
+      <c r="F171" s="1">
+        <v>0</v>
+      </c>
+      <c r="G171" s="1">
+        <v>19</v>
+      </c>
+      <c r="H171" s="1">
+        <f t="shared" si="5"/>
+        <v>-15.731299560546006</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B172" s="1">
+        <v>468.15827465820303</v>
+      </c>
+      <c r="C172" s="1">
+        <v>324.37</v>
+      </c>
+      <c r="D172" s="1">
+        <v>479.02631077734299</v>
+      </c>
+      <c r="E172" s="1">
+        <v>330.19749487304603</v>
+      </c>
+      <c r="F172" s="1">
+        <v>0</v>
+      </c>
+      <c r="G172" s="1">
+        <v>19</v>
+      </c>
+      <c r="H172" s="1">
+        <f t="shared" si="5"/>
+        <v>-15.731299560546006</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>4</v>
+      </c>
+      <c r="B173" s="1">
+        <v>530.29161962890601</v>
+      </c>
+      <c r="C173" s="1">
+        <v>324.37</v>
+      </c>
+      <c r="D173" s="1">
+        <v>534.25478515625002</v>
+      </c>
+      <c r="E173" s="1">
+        <v>330.099783691406</v>
+      </c>
+      <c r="F173" s="1">
+        <v>0</v>
+      </c>
+      <c r="G173" s="1">
+        <v>19</v>
+      </c>
+      <c r="H173" s="1">
+        <f t="shared" si="5"/>
+        <v>-15.731299560546006</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B174" s="1">
+        <v>598.14866162109297</v>
+      </c>
+      <c r="C174" s="1">
+        <v>324.27228881835902</v>
+      </c>
+      <c r="D174" s="1">
+        <v>608.20697019140596</v>
+      </c>
+      <c r="E174" s="1">
+        <v>330.099783691406</v>
+      </c>
+      <c r="F174" s="1">
+        <v>0</v>
+      </c>
+      <c r="G174" s="1">
+        <v>19</v>
+      </c>
+      <c r="H174" s="1">
+        <f t="shared" si="5"/>
+        <v>-15.829010742186995</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>40</v>
+      </c>
+      <c r="B175" s="1">
+        <v>584.23852099609303</v>
+      </c>
+      <c r="C175" s="1">
+        <v>324.17</v>
+      </c>
+      <c r="D175" s="1">
+        <v>592.58057026171798</v>
+      </c>
+      <c r="E175" s="1">
+        <v>329.92323437499999</v>
+      </c>
+      <c r="F175" s="1">
+        <v>0</v>
+      </c>
+      <c r="G175" s="1">
+        <v>19</v>
+      </c>
+      <c r="H175" s="1">
+        <f t="shared" si="5"/>
+        <v>-15.931299560545995</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B176" s="1">
+        <v>330.77272754296803</v>
+      </c>
+      <c r="C176" s="1">
+        <v>310.06129956054599</v>
+      </c>
+      <c r="D176" s="1">
+        <v>341.16422572460903</v>
+      </c>
+      <c r="E176" s="1">
+        <v>315.83129956054597</v>
+      </c>
+      <c r="F176" s="1">
+        <v>0</v>
+      </c>
+      <c r="G176" s="1">
+        <v>19</v>
+      </c>
+      <c r="H176" s="1">
+        <f>C176-$I$176</f>
+        <v>0</v>
+      </c>
+      <c r="I176" s="1">
+        <f>C176</f>
+        <v>310.06129956054599</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B177" s="1">
+        <v>137.669260009765</v>
+      </c>
+      <c r="C177" s="1">
+        <v>306.36</v>
+      </c>
+      <c r="D177" s="1">
+        <v>152.49812780859301</v>
+      </c>
+      <c r="E177" s="1">
+        <v>312.08978369140601</v>
+      </c>
+      <c r="F177" s="1">
+        <v>0</v>
+      </c>
+      <c r="G177" s="1">
+        <v>19</v>
+      </c>
+      <c r="H177" s="1">
+        <f t="shared" ref="H177:H209" si="6">C177-$I$176</f>
+        <v>-3.7012995605459764</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B178" s="1">
+        <v>155.499565167968</v>
+      </c>
+      <c r="C178" s="1">
+        <v>306.36</v>
+      </c>
+      <c r="D178" s="1">
+        <v>180.940742785156</v>
+      </c>
+      <c r="E178" s="1">
+        <v>312.08978369140601</v>
+      </c>
+      <c r="F178" s="1">
+        <v>0</v>
+      </c>
+      <c r="G178" s="1">
+        <v>19</v>
+      </c>
+      <c r="H178" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.7012995605459764</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B179" s="1">
+        <v>274.85760546875002</v>
+      </c>
+      <c r="C179" s="1">
+        <v>306.36</v>
+      </c>
+      <c r="D179" s="1">
+        <v>298.83492888085902</v>
+      </c>
+      <c r="E179" s="1">
+        <v>312.13</v>
+      </c>
+      <c r="F179" s="1">
+        <v>0</v>
+      </c>
+      <c r="G179" s="1">
+        <v>19</v>
+      </c>
+      <c r="H179" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.7012995605459764</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B180" s="1">
+        <v>302.454807667968</v>
+      </c>
+      <c r="C180" s="1">
+        <v>306.36</v>
+      </c>
+      <c r="D180" s="1">
+        <v>327.89598528515597</v>
+      </c>
+      <c r="E180" s="1">
+        <v>312.08978369140601</v>
+      </c>
+      <c r="F180" s="1">
+        <v>0</v>
+      </c>
+      <c r="G180" s="1">
+        <v>19</v>
+      </c>
+      <c r="H180" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.7012995605459764</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B181" s="1">
+        <v>416.02651342773402</v>
+      </c>
+      <c r="C181" s="1">
+        <v>306.36</v>
+      </c>
+      <c r="D181" s="1">
+        <v>447.57421778515601</v>
+      </c>
+      <c r="E181" s="1">
+        <v>312.08978369140601</v>
+      </c>
+      <c r="F181" s="1">
+        <v>0</v>
+      </c>
+      <c r="G181" s="1">
+        <v>19</v>
+      </c>
+      <c r="H181" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.7012995605459764</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>1</v>
+      </c>
+      <c r="B182" s="1">
+        <v>508.73158374023399</v>
+      </c>
+      <c r="C182" s="1">
+        <v>306.36</v>
+      </c>
+      <c r="D182" s="1">
+        <v>510.842145263671</v>
+      </c>
+      <c r="E182" s="1">
+        <v>312.11323437499999</v>
+      </c>
+      <c r="F182" s="1">
+        <v>0</v>
+      </c>
+      <c r="G182" s="1">
+        <v>19</v>
+      </c>
+      <c r="H182" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.7012995605459764</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B183" s="1">
+        <v>619.29930216796799</v>
+      </c>
+      <c r="C183" s="1">
+        <v>306.36</v>
+      </c>
+      <c r="D183" s="1">
+        <v>635.12591838476499</v>
+      </c>
+      <c r="E183" s="1">
+        <v>312.08978369140601</v>
+      </c>
+      <c r="F183" s="1">
+        <v>0</v>
+      </c>
+      <c r="G183" s="1">
+        <v>19</v>
+      </c>
+      <c r="H183" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.7012995605459764</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B184" s="1">
+        <v>183.532168392578</v>
+      </c>
+      <c r="C184" s="1">
+        <v>306.26228881835902</v>
+      </c>
+      <c r="D184" s="1">
+        <v>192.00055418164001</v>
+      </c>
+      <c r="E184" s="1">
+        <v>312.11323437499999</v>
+      </c>
+      <c r="F184" s="1">
+        <v>0</v>
+      </c>
+      <c r="G184" s="1">
+        <v>19</v>
+      </c>
+      <c r="H184" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.7990107421869652</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B185" s="1">
+        <v>543.98207739257805</v>
+      </c>
+      <c r="C185" s="1">
+        <v>306.26228881835902</v>
+      </c>
+      <c r="D185" s="1">
+        <v>556.83589760351504</v>
+      </c>
+      <c r="E185" s="1">
+        <v>312.11323437499999</v>
+      </c>
+      <c r="F185" s="1">
+        <v>0</v>
+      </c>
+      <c r="G185" s="1">
+        <v>19</v>
+      </c>
+      <c r="H185" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.7990107421869652</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B186" s="1">
+        <v>598.050950439453</v>
+      </c>
+      <c r="C186" s="1">
+        <v>306.26228881835902</v>
+      </c>
+      <c r="D186" s="1">
+        <v>616.28185580859304</v>
+      </c>
+      <c r="E186" s="1">
+        <v>312.08978369140601</v>
+      </c>
+      <c r="F186" s="1">
+        <v>0</v>
+      </c>
+      <c r="G186" s="1">
+        <v>19</v>
+      </c>
+      <c r="H186" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.7990107421869652</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B187" s="1">
+        <v>28.1724011230468</v>
+      </c>
+      <c r="C187" s="1">
+        <v>306.03838037109301</v>
+      </c>
+      <c r="D187" s="1">
+        <v>64.729171496093699</v>
+      </c>
+      <c r="E187" s="1">
+        <v>311.893234374999</v>
+      </c>
+      <c r="F187" s="1">
+        <v>0</v>
+      </c>
+      <c r="G187" s="1">
+        <v>19</v>
+      </c>
+      <c r="H187" s="1">
+        <f t="shared" si="6"/>
+        <v>-4.0229191894529777</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B188" s="1">
+        <v>137.65753466796801</v>
+      </c>
+      <c r="C188" s="1">
+        <v>294.33</v>
+      </c>
+      <c r="D188" s="1">
+        <v>151.251333130859</v>
+      </c>
+      <c r="E188" s="1">
+        <v>300.08323437499899</v>
+      </c>
+      <c r="F188" s="1">
+        <v>0</v>
+      </c>
+      <c r="G188" s="1">
+        <v>19</v>
+      </c>
+      <c r="H188" s="1">
+        <f t="shared" si="6"/>
+        <v>-15.731299560546006</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B189" s="1">
+        <v>275.28753466796798</v>
+      </c>
+      <c r="C189" s="1">
+        <v>294.33</v>
+      </c>
+      <c r="D189" s="1">
+        <v>288.982952759765</v>
+      </c>
+      <c r="E189" s="1">
+        <v>299.98161474609299</v>
+      </c>
+      <c r="F189" s="1">
+        <v>0</v>
+      </c>
+      <c r="G189" s="1">
+        <v>19</v>
+      </c>
+      <c r="H189" s="1">
+        <f t="shared" si="6"/>
+        <v>-15.731299560546006</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>125</v>
+      </c>
+      <c r="B190" s="1">
+        <v>453.08158374023401</v>
+      </c>
+      <c r="C190" s="1">
+        <v>294.33</v>
+      </c>
+      <c r="D190" s="1">
+        <v>465.21021475976499</v>
+      </c>
+      <c r="E190" s="1">
+        <v>299.98161474609299</v>
+      </c>
+      <c r="F190" s="1">
+        <v>0</v>
+      </c>
+      <c r="G190" s="1">
+        <v>19</v>
+      </c>
+      <c r="H190" s="1">
+        <f t="shared" si="6"/>
+        <v>-15.731299560546006</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B191" s="1">
+        <v>468.37227366796799</v>
+      </c>
+      <c r="C191" s="1">
+        <v>294.33</v>
+      </c>
+      <c r="D191" s="1">
+        <v>478.94997027734303</v>
+      </c>
+      <c r="E191" s="1">
+        <v>300.15749487304601</v>
+      </c>
+      <c r="F191" s="1">
+        <v>0</v>
+      </c>
+      <c r="G191" s="1">
+        <v>19</v>
+      </c>
+      <c r="H191" s="1">
+        <f t="shared" si="6"/>
+        <v>-15.731299560546006</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>4</v>
+      </c>
+      <c r="B192" s="1">
+        <v>530.29161962890601</v>
+      </c>
+      <c r="C192" s="1">
+        <v>294.33</v>
+      </c>
+      <c r="D192" s="1">
+        <v>534.25478515625002</v>
+      </c>
+      <c r="E192" s="1">
+        <v>300.05978369140598</v>
+      </c>
+      <c r="F192" s="1">
+        <v>0</v>
+      </c>
+      <c r="G192" s="1">
+        <v>19</v>
+      </c>
+      <c r="H192" s="1">
+        <f t="shared" si="6"/>
+        <v>-15.731299560546006</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B193" s="1">
+        <v>598.36753466796802</v>
+      </c>
+      <c r="C193" s="1">
+        <v>294.33</v>
+      </c>
+      <c r="D193" s="1">
+        <v>618.60538080664003</v>
+      </c>
+      <c r="E193" s="1">
+        <v>300.15749487304601</v>
+      </c>
+      <c r="F193" s="1">
+        <v>0</v>
+      </c>
+      <c r="G193" s="1">
+        <v>19</v>
+      </c>
+      <c r="H193" s="1">
+        <f t="shared" si="6"/>
+        <v>-15.731299560546006</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>262</v>
+      </c>
+      <c r="B194" s="1">
+        <v>621.21356583593695</v>
+      </c>
+      <c r="C194" s="1">
+        <v>294.33</v>
+      </c>
+      <c r="D194" s="1">
+        <v>633.84563613085902</v>
+      </c>
+      <c r="E194" s="1">
+        <v>300.08323437499899</v>
+      </c>
+      <c r="F194" s="1">
+        <v>0</v>
+      </c>
+      <c r="G194" s="1">
+        <v>19</v>
+      </c>
+      <c r="H194" s="1">
+        <f t="shared" si="6"/>
+        <v>-15.731299560546006</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B195" s="1">
+        <v>28.2466616210937</v>
+      </c>
+      <c r="C195" s="1">
+        <v>294.232288818359</v>
+      </c>
+      <c r="D195" s="1">
+        <v>66.593844785156193</v>
+      </c>
+      <c r="E195" s="1">
+        <v>300.05978369140598</v>
+      </c>
+      <c r="F195" s="1">
+        <v>0</v>
+      </c>
+      <c r="G195" s="1">
+        <v>19</v>
+      </c>
+      <c r="H195" s="1">
+        <f t="shared" si="6"/>
+        <v>-15.829010742186995</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B196" s="1">
+        <v>636.92245962109303</v>
+      </c>
+      <c r="C196" s="1">
+        <v>294.232288818359</v>
+      </c>
+      <c r="D196" s="1">
+        <v>675.22161578515602</v>
+      </c>
+      <c r="E196" s="1">
+        <v>300.05978369140598</v>
+      </c>
+      <c r="F196" s="1">
+        <v>0</v>
+      </c>
+      <c r="G196" s="1">
+        <v>19</v>
+      </c>
+      <c r="H196" s="1">
+        <f t="shared" si="6"/>
+        <v>-15.829010742186995</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>40</v>
+      </c>
+      <c r="B197" s="1">
+        <v>584.23852099609303</v>
+      </c>
+      <c r="C197" s="1">
+        <v>294.14</v>
+      </c>
+      <c r="D197" s="1">
+        <v>592.58057026171798</v>
+      </c>
+      <c r="E197" s="1">
+        <v>299.893234374999</v>
+      </c>
+      <c r="F197" s="1">
+        <v>0</v>
+      </c>
+      <c r="G197" s="1">
+        <v>19</v>
+      </c>
+      <c r="H197" s="1">
+        <f t="shared" si="6"/>
+        <v>-15.921299560546004</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B198" s="1">
+        <v>330.77272754296803</v>
+      </c>
+      <c r="C198" s="1">
+        <v>280.02129956054603</v>
+      </c>
+      <c r="D198" s="1">
+        <v>341.16422572460903</v>
+      </c>
+      <c r="E198" s="1">
+        <v>285.79129956054601</v>
+      </c>
+      <c r="F198" s="1">
+        <v>0</v>
+      </c>
+      <c r="G198" s="1">
+        <v>19</v>
+      </c>
+      <c r="H198" s="1">
+        <f t="shared" si="6"/>
+        <v>-30.039999999999964</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B199" s="1">
+        <v>137.669260009765</v>
+      </c>
+      <c r="C199" s="1">
+        <v>276.32</v>
+      </c>
+      <c r="D199" s="1">
+        <v>152.49812780859301</v>
+      </c>
+      <c r="E199" s="1">
+        <v>282.04978369140599</v>
+      </c>
+      <c r="F199" s="1">
+        <v>0</v>
+      </c>
+      <c r="G199" s="1">
+        <v>19</v>
+      </c>
+      <c r="H199" s="1">
+        <f t="shared" si="6"/>
+        <v>-33.741299560545997</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B200" s="1">
+        <v>155.499565167968</v>
+      </c>
+      <c r="C200" s="1">
+        <v>276.32</v>
+      </c>
+      <c r="D200" s="1">
+        <v>180.940742785156</v>
+      </c>
+      <c r="E200" s="1">
+        <v>282.04978369140599</v>
+      </c>
+      <c r="F200" s="1">
+        <v>0</v>
+      </c>
+      <c r="G200" s="1">
+        <v>19</v>
+      </c>
+      <c r="H200" s="1">
+        <f t="shared" si="6"/>
+        <v>-33.741299560545997</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B201" s="1">
+        <v>274.85760546875002</v>
+      </c>
+      <c r="C201" s="1">
+        <v>276.32</v>
+      </c>
+      <c r="D201" s="1">
+        <v>298.83492888085902</v>
+      </c>
+      <c r="E201" s="1">
+        <v>282.08999999999997</v>
+      </c>
+      <c r="F201" s="1">
+        <v>0</v>
+      </c>
+      <c r="G201" s="1">
+        <v>19</v>
+      </c>
+      <c r="H201" s="1">
+        <f t="shared" si="6"/>
+        <v>-33.741299560545997</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B202" s="1">
+        <v>302.454807667968</v>
+      </c>
+      <c r="C202" s="1">
+        <v>276.32</v>
+      </c>
+      <c r="D202" s="1">
+        <v>327.89598528515597</v>
+      </c>
+      <c r="E202" s="1">
+        <v>282.04978369140599</v>
+      </c>
+      <c r="F202" s="1">
+        <v>0</v>
+      </c>
+      <c r="G202" s="1">
+        <v>19</v>
+      </c>
+      <c r="H202" s="1">
+        <f t="shared" si="6"/>
+        <v>-33.741299560545997</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B203" s="1">
+        <v>416.02651342773402</v>
+      </c>
+      <c r="C203" s="1">
+        <v>276.32</v>
+      </c>
+      <c r="D203" s="1">
+        <v>447.57421778515601</v>
+      </c>
+      <c r="E203" s="1">
+        <v>282.04978369140599</v>
+      </c>
+      <c r="F203" s="1">
+        <v>0</v>
+      </c>
+      <c r="G203" s="1">
+        <v>19</v>
+      </c>
+      <c r="H203" s="1">
+        <f t="shared" si="6"/>
+        <v>-33.741299560545997</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>1</v>
+      </c>
+      <c r="B204" s="1">
+        <v>508.73158374023399</v>
+      </c>
+      <c r="C204" s="1">
+        <v>276.32</v>
+      </c>
+      <c r="D204" s="1">
+        <v>510.842145263671</v>
+      </c>
+      <c r="E204" s="1">
+        <v>282.073234374999</v>
+      </c>
+      <c r="F204" s="1">
+        <v>0</v>
+      </c>
+      <c r="G204" s="1">
+        <v>19</v>
+      </c>
+      <c r="H204" s="1">
+        <f t="shared" si="6"/>
+        <v>-33.741299560545997</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B205" s="1">
+        <v>619.29930216796799</v>
+      </c>
+      <c r="C205" s="1">
+        <v>276.32</v>
+      </c>
+      <c r="D205" s="1">
+        <v>635.12591838476499</v>
+      </c>
+      <c r="E205" s="1">
+        <v>282.04978369140599</v>
+      </c>
+      <c r="F205" s="1">
+        <v>0</v>
+      </c>
+      <c r="G205" s="1">
+        <v>19</v>
+      </c>
+      <c r="H205" s="1">
+        <f t="shared" si="6"/>
+        <v>-33.741299560545997</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B206" s="1">
+        <v>183.532168392578</v>
+      </c>
+      <c r="C206" s="1">
+        <v>276.222288818359</v>
+      </c>
+      <c r="D206" s="1">
+        <v>192.00055418164001</v>
+      </c>
+      <c r="E206" s="1">
+        <v>282.073234374999</v>
+      </c>
+      <c r="F206" s="1">
+        <v>0</v>
+      </c>
+      <c r="G206" s="1">
+        <v>19</v>
+      </c>
+      <c r="H206" s="1">
+        <f t="shared" si="6"/>
+        <v>-33.839010742186986</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B207" s="1">
+        <v>543.98207739257805</v>
+      </c>
+      <c r="C207" s="1">
+        <v>276.222288818359</v>
+      </c>
+      <c r="D207" s="1">
+        <v>556.83589760351504</v>
+      </c>
+      <c r="E207" s="1">
+        <v>282.073234374999</v>
+      </c>
+      <c r="F207" s="1">
+        <v>0</v>
+      </c>
+      <c r="G207" s="1">
+        <v>19</v>
+      </c>
+      <c r="H207" s="1">
+        <f t="shared" si="6"/>
+        <v>-33.839010742186986</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B208" s="1">
+        <v>598.050950439453</v>
+      </c>
+      <c r="C208" s="1">
+        <v>276.222288818359</v>
+      </c>
+      <c r="D208" s="1">
+        <v>616.28185580859304</v>
+      </c>
+      <c r="E208" s="1">
+        <v>282.04978369140599</v>
+      </c>
+      <c r="F208" s="1">
+        <v>0</v>
+      </c>
+      <c r="G208" s="1">
+        <v>19</v>
+      </c>
+      <c r="H208" s="1">
+        <f t="shared" si="6"/>
+        <v>-33.839010742186986</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B209" s="1">
+        <v>28.1724011230468</v>
+      </c>
+      <c r="C209" s="1">
+        <v>275.99838037109299</v>
+      </c>
+      <c r="D209" s="1">
+        <v>65.628114367187493</v>
+      </c>
+      <c r="E209" s="1">
+        <v>281.853234375</v>
+      </c>
+      <c r="F209" s="1">
+        <v>0</v>
+      </c>
+      <c r="G209" s="1">
+        <v>19</v>
+      </c>
+      <c r="H209" s="1">
+        <f t="shared" si="6"/>
+        <v>-34.062919189452998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B210" s="1">
+        <v>137.65753466796801</v>
+      </c>
+      <c r="C210" s="1">
+        <v>264.29000000000002</v>
+      </c>
+      <c r="D210" s="1">
+        <v>151.251333130859</v>
+      </c>
+      <c r="E210" s="1">
+        <v>270.043234375</v>
+      </c>
+      <c r="F210" s="1">
+        <v>0</v>
+      </c>
+      <c r="G210" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B211" s="1">
+        <v>275.28753466796798</v>
+      </c>
+      <c r="C211" s="1">
+        <v>264.29000000000002</v>
+      </c>
+      <c r="D211" s="1">
+        <v>288.982952759765</v>
+      </c>
+      <c r="E211" s="1">
+        <v>269.94161474609302</v>
+      </c>
+      <c r="F211" s="1">
+        <v>0</v>
+      </c>
+      <c r="G211" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>125</v>
+      </c>
+      <c r="B212" s="1">
+        <v>453.08158374023401</v>
+      </c>
+      <c r="C212" s="1">
+        <v>264.29000000000002</v>
+      </c>
+      <c r="D212" s="1">
+        <v>465.21021475976499</v>
+      </c>
+      <c r="E212" s="1">
+        <v>269.94161474609302</v>
+      </c>
+      <c r="F212" s="1">
+        <v>0</v>
+      </c>
+      <c r="G212" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B213" s="1">
+        <v>468.37227366796799</v>
+      </c>
+      <c r="C213" s="1">
+        <v>264.29000000000002</v>
+      </c>
+      <c r="D213" s="1">
+        <v>478.94997027734303</v>
+      </c>
+      <c r="E213" s="1">
+        <v>270.11749487304598</v>
+      </c>
+      <c r="F213" s="1">
+        <v>0</v>
+      </c>
+      <c r="G213" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>4</v>
+      </c>
+      <c r="B214" s="1">
+        <v>530.29161962890601</v>
+      </c>
+      <c r="C214" s="1">
+        <v>264.29000000000002</v>
+      </c>
+      <c r="D214" s="1">
+        <v>534.25478515625002</v>
+      </c>
+      <c r="E214" s="1">
+        <v>270.01978369140602</v>
+      </c>
+      <c r="F214" s="1">
+        <v>0</v>
+      </c>
+      <c r="G214" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B215" s="1">
+        <v>598.36753466796802</v>
+      </c>
+      <c r="C215" s="1">
+        <v>264.29000000000002</v>
+      </c>
+      <c r="D215" s="1">
+        <v>618.60538080664003</v>
+      </c>
+      <c r="E215" s="1">
+        <v>270.11749487304598</v>
+      </c>
+      <c r="F215" s="1">
+        <v>0</v>
+      </c>
+      <c r="G215" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>262</v>
+      </c>
+      <c r="B216" s="1">
+        <v>621.21356583593695</v>
+      </c>
+      <c r="C216" s="1">
+        <v>264.29000000000002</v>
+      </c>
+      <c r="D216" s="1">
+        <v>633.84563613085902</v>
+      </c>
+      <c r="E216" s="1">
+        <v>270.043234375</v>
+      </c>
+      <c r="F216" s="1">
+        <v>0</v>
+      </c>
+      <c r="G216" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B217" s="1">
+        <v>28.2466616210937</v>
+      </c>
+      <c r="C217" s="1">
+        <v>264.19228881835897</v>
+      </c>
+      <c r="D217" s="1">
+        <v>66.593844785156193</v>
+      </c>
+      <c r="E217" s="1">
+        <v>270.01978369140602</v>
+      </c>
+      <c r="F217" s="1">
+        <v>0</v>
+      </c>
+      <c r="G217" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B218" s="1">
+        <v>636.92245962109303</v>
+      </c>
+      <c r="C218" s="1">
+        <v>264.19228881835897</v>
+      </c>
+      <c r="D218" s="1">
+        <v>675.22161578515602</v>
+      </c>
+      <c r="E218" s="1">
+        <v>270.01978369140602</v>
+      </c>
+      <c r="F218" s="1">
+        <v>0</v>
+      </c>
+      <c r="G218" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>40</v>
+      </c>
+      <c r="B219" s="1">
+        <v>584.23852099609303</v>
+      </c>
+      <c r="C219" s="1">
+        <v>264.10000000000002</v>
+      </c>
+      <c r="D219" s="1">
+        <v>592.58057026171798</v>
+      </c>
+      <c r="E219" s="1">
+        <v>269.853234375</v>
+      </c>
+      <c r="F219" s="1">
+        <v>0</v>
+      </c>
+      <c r="G219" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B220" s="1">
+        <v>330.78078807031198</v>
+      </c>
+      <c r="C220" s="1">
+        <v>249.97024814453101</v>
+      </c>
+      <c r="D220" s="1">
+        <v>341.14923970390601</v>
+      </c>
+      <c r="E220" s="1">
+        <v>255.74024814453099</v>
+      </c>
+      <c r="F220" s="1">
+        <v>0</v>
+      </c>
+      <c r="G220" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B221" s="1">
+        <v>137.66738115234301</v>
+      </c>
+      <c r="C221" s="1">
+        <v>246.28</v>
+      </c>
+      <c r="D221" s="1">
+        <v>152.46793381406201</v>
+      </c>
+      <c r="E221" s="1">
+        <v>251.99267558593701</v>
+      </c>
+      <c r="F221" s="1">
+        <v>0</v>
+      </c>
+      <c r="G221" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B222" s="1">
+        <v>155.49233182031199</v>
+      </c>
+      <c r="C222" s="1">
+        <v>246.28</v>
+      </c>
+      <c r="D222" s="1">
+        <v>180.92139144843699</v>
+      </c>
+      <c r="E222" s="1">
+        <v>251.99267558593701</v>
+      </c>
+      <c r="F222" s="1">
+        <v>0</v>
+      </c>
+      <c r="G222" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B223" s="1">
+        <v>274.85704531250002</v>
+      </c>
+      <c r="C223" s="1">
+        <v>246.28</v>
+      </c>
+      <c r="D223" s="1">
+        <v>298.83460214140598</v>
+      </c>
+      <c r="E223" s="1">
+        <v>252.05</v>
+      </c>
+      <c r="F223" s="1">
+        <v>0</v>
+      </c>
+      <c r="G223" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B224" s="1">
+        <v>302.45963382031198</v>
+      </c>
+      <c r="C224" s="1">
+        <v>246.28</v>
+      </c>
+      <c r="D224" s="1">
+        <v>327.88869344843698</v>
+      </c>
+      <c r="E224" s="1">
+        <v>251.99267558593701</v>
+      </c>
+      <c r="F224" s="1">
+        <v>0</v>
+      </c>
+      <c r="G224" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B225" s="1">
+        <v>416.02428447265601</v>
+      </c>
+      <c r="C225" s="1">
+        <v>246.28</v>
+      </c>
+      <c r="D225" s="1">
+        <v>447.549618448437</v>
+      </c>
+      <c r="E225" s="1">
+        <v>251.99267558593701</v>
+      </c>
+      <c r="F225" s="1">
+        <v>0</v>
+      </c>
+      <c r="G225" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>1</v>
+      </c>
+      <c r="B226" s="1">
+        <v>508.72898134765597</v>
+      </c>
+      <c r="C226" s="1">
+        <v>246.28</v>
+      </c>
+      <c r="D226" s="1">
+        <v>510.83324111328102</v>
+      </c>
+      <c r="E226" s="1">
+        <v>252.01605624999999</v>
+      </c>
+      <c r="F226" s="1">
+        <v>0</v>
+      </c>
+      <c r="G226" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B227" s="1">
+        <v>619.29880462031201</v>
+      </c>
+      <c r="C227" s="1">
+        <v>246.28</v>
+      </c>
+      <c r="D227" s="1">
+        <v>635.11806840234306</v>
+      </c>
+      <c r="E227" s="1">
+        <v>251.99267558593701</v>
+      </c>
+      <c r="F227" s="1">
+        <v>0</v>
+      </c>
+      <c r="G227" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B228" s="1">
+        <v>183.52902132421801</v>
+      </c>
+      <c r="C228" s="1">
+        <v>246.18258056640599</v>
+      </c>
+      <c r="D228" s="1">
+        <v>191.972122033593</v>
+      </c>
+      <c r="E228" s="1">
+        <v>252.01605624999999</v>
+      </c>
+      <c r="F228" s="1">
+        <v>0</v>
+      </c>
+      <c r="G228" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B229" s="1">
+        <v>543.98183232421798</v>
+      </c>
+      <c r="C229" s="1">
+        <v>246.18258056640599</v>
+      </c>
+      <c r="D229" s="1">
+        <v>556.82387241484298</v>
+      </c>
+      <c r="E229" s="1">
+        <v>252.01605624999999</v>
+      </c>
+      <c r="F229" s="1">
+        <v>0</v>
+      </c>
+      <c r="G229" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B230" s="1">
+        <v>598.05005185546804</v>
+      </c>
+      <c r="C230" s="1">
+        <v>246.18258056640599</v>
+      </c>
+      <c r="D230" s="1">
+        <v>616.26642601406195</v>
+      </c>
+      <c r="E230" s="1">
+        <v>251.99267558593701</v>
+      </c>
+      <c r="F230" s="1">
+        <v>0</v>
+      </c>
+      <c r="G230" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B231" s="1">
+        <v>28.171432519531201</v>
+      </c>
+      <c r="C231" s="1">
+        <v>245.968683789062</v>
+      </c>
+      <c r="D231" s="1">
+        <v>65.677509188281206</v>
+      </c>
+      <c r="E231" s="1">
+        <v>251.80605624999899</v>
+      </c>
+      <c r="F231" s="1">
+        <v>0</v>
+      </c>
+      <c r="G231" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B232" s="1">
+        <v>137.655690820312</v>
+      </c>
+      <c r="C232" s="1">
+        <v>234.25</v>
+      </c>
+      <c r="D232" s="1">
+        <v>151.22486184140601</v>
+      </c>
+      <c r="E232" s="1">
+        <v>239.98605624999999</v>
+      </c>
+      <c r="F232" s="1">
+        <v>0</v>
+      </c>
+      <c r="G232" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B233" s="1">
+        <v>275.28569082031203</v>
+      </c>
+      <c r="C233" s="1">
+        <v>234.25</v>
+      </c>
+      <c r="D233" s="1">
+        <v>288.95617805234298</v>
+      </c>
+      <c r="E233" s="1">
+        <v>239.884740039062</v>
+      </c>
+      <c r="F233" s="1">
+        <v>0</v>
+      </c>
+      <c r="G233" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>125</v>
+      </c>
+      <c r="B234" s="1">
+        <v>453.078981347656</v>
+      </c>
+      <c r="C234" s="1">
+        <v>234.25</v>
+      </c>
+      <c r="D234" s="1">
+        <v>465.20332085234298</v>
+      </c>
+      <c r="E234" s="1">
+        <v>239.884740039062</v>
+      </c>
+      <c r="F234" s="1">
+        <v>0</v>
+      </c>
+      <c r="G234" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B235" s="1">
+        <v>468.37189962031198</v>
+      </c>
+      <c r="C235" s="1">
+        <v>234.25</v>
+      </c>
+      <c r="D235" s="1">
+        <v>478.93397432656201</v>
+      </c>
+      <c r="E235" s="1">
+        <v>240.06009501953099</v>
+      </c>
+      <c r="F235" s="1">
+        <v>0</v>
+      </c>
+      <c r="G235" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>2</v>
+      </c>
+      <c r="B236" s="1">
+        <v>530.423806640625</v>
+      </c>
+      <c r="C236" s="1">
+        <v>234.25</v>
+      </c>
+      <c r="D236" s="1">
+        <v>534.20757744140599</v>
+      </c>
+      <c r="E236" s="1">
+        <v>239.98605624999999</v>
+      </c>
+      <c r="F236" s="1">
+        <v>0</v>
+      </c>
+      <c r="G236" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B237" s="1">
+        <v>598.36569082031201</v>
+      </c>
+      <c r="C237" s="1">
+        <v>234.25</v>
+      </c>
+      <c r="D237" s="1">
+        <v>618.59099398359297</v>
+      </c>
+      <c r="E237" s="1">
+        <v>240.06009501953099</v>
+      </c>
+      <c r="F237" s="1">
+        <v>0</v>
+      </c>
+      <c r="G237" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>262</v>
+      </c>
+      <c r="B238" s="1">
+        <v>621.21533324062398</v>
+      </c>
+      <c r="C238" s="1">
+        <v>234.25</v>
+      </c>
+      <c r="D238" s="1">
+        <v>633.82564764140602</v>
+      </c>
+      <c r="E238" s="1">
+        <v>239.98605624999999</v>
+      </c>
+      <c r="F238" s="1">
+        <v>0</v>
+      </c>
+      <c r="G238" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B239" s="1">
+        <v>28.2454712890625</v>
+      </c>
+      <c r="C239" s="1">
+        <v>234.15258056640599</v>
+      </c>
+      <c r="D239" s="1">
+        <v>66.557962648437496</v>
+      </c>
+      <c r="E239" s="1">
+        <v>239.96267558593701</v>
+      </c>
+      <c r="F239" s="1">
+        <v>0</v>
+      </c>
+      <c r="G239" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B240" s="1">
+        <v>636.92520668906195</v>
+      </c>
+      <c r="C240" s="1">
+        <v>234.15258056640599</v>
+      </c>
+      <c r="D240" s="1">
+        <v>675.197795048437</v>
+      </c>
+      <c r="E240" s="1">
+        <v>239.96267558593701</v>
+      </c>
+      <c r="F240" s="1">
+        <v>0</v>
+      </c>
+      <c r="G240" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>40</v>
+      </c>
+      <c r="B241" s="1">
+        <v>584.23807753906203</v>
+      </c>
+      <c r="C241" s="1">
+        <v>234.06</v>
+      </c>
+      <c r="D241" s="1">
+        <v>592.56851848281201</v>
+      </c>
+      <c r="E241" s="1">
+        <v>239.79605624999999</v>
+      </c>
+      <c r="F241" s="1">
+        <v>0</v>
+      </c>
+      <c r="G241" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B242" s="1">
+        <v>330.78078807031198</v>
+      </c>
+      <c r="C242" s="1">
+        <v>219.93024814453099</v>
+      </c>
+      <c r="D242" s="1">
+        <v>341.14923970390601</v>
+      </c>
+      <c r="E242" s="1">
+        <v>225.700248144531</v>
+      </c>
+      <c r="F242" s="1">
+        <v>0</v>
+      </c>
+      <c r="G242" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B243" s="1">
+        <v>137.66738115234301</v>
+      </c>
+      <c r="C243" s="1">
+        <v>216.24</v>
+      </c>
+      <c r="D243" s="1">
+        <v>152.46793381406201</v>
+      </c>
+      <c r="E243" s="1">
+        <v>221.95267558593699</v>
+      </c>
+      <c r="F243" s="1">
+        <v>0</v>
+      </c>
+      <c r="G243" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B244" s="1">
+        <v>155.49233182031199</v>
+      </c>
+      <c r="C244" s="1">
+        <v>216.24</v>
+      </c>
+      <c r="D244" s="1">
+        <v>180.92139144843699</v>
+      </c>
+      <c r="E244" s="1">
+        <v>221.95267558593699</v>
+      </c>
+      <c r="F244" s="1">
+        <v>0</v>
+      </c>
+      <c r="G244" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B245" s="1">
+        <v>274.85704531250002</v>
+      </c>
+      <c r="C245" s="1">
+        <v>216.24</v>
+      </c>
+      <c r="D245" s="1">
+        <v>298.83460214140598</v>
+      </c>
+      <c r="E245" s="1">
+        <v>222.01</v>
+      </c>
+      <c r="F245" s="1">
+        <v>0</v>
+      </c>
+      <c r="G245" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B246" s="1">
+        <v>302.45963382031198</v>
+      </c>
+      <c r="C246" s="1">
+        <v>216.24</v>
+      </c>
+      <c r="D246" s="1">
+        <v>327.88869344843698</v>
+      </c>
+      <c r="E246" s="1">
+        <v>221.95267558593699</v>
+      </c>
+      <c r="F246" s="1">
+        <v>0</v>
+      </c>
+      <c r="G246" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B247" s="1">
+        <v>416.02428447265601</v>
+      </c>
+      <c r="C247" s="1">
+        <v>216.24</v>
+      </c>
+      <c r="D247" s="1">
+        <v>447.549618448437</v>
+      </c>
+      <c r="E247" s="1">
+        <v>221.95267558593699</v>
+      </c>
+      <c r="F247" s="1">
+        <v>0</v>
+      </c>
+      <c r="G247" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>1</v>
+      </c>
+      <c r="B248" s="1">
+        <v>508.72898134765597</v>
+      </c>
+      <c r="C248" s="1">
+        <v>216.24</v>
+      </c>
+      <c r="D248" s="1">
+        <v>510.83324111328102</v>
+      </c>
+      <c r="E248" s="1">
+        <v>221.97605625</v>
+      </c>
+      <c r="F248" s="1">
+        <v>0</v>
+      </c>
+      <c r="G248" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B249" s="1">
+        <v>619.29880462031201</v>
+      </c>
+      <c r="C249" s="1">
+        <v>216.24</v>
+      </c>
+      <c r="D249" s="1">
+        <v>635.11806840234306</v>
+      </c>
+      <c r="E249" s="1">
+        <v>221.95267558593699</v>
+      </c>
+      <c r="F249" s="1">
+        <v>0</v>
+      </c>
+      <c r="G249" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B250" s="1">
+        <v>183.52902132421801</v>
+      </c>
+      <c r="C250" s="1">
+        <v>216.142580566406</v>
+      </c>
+      <c r="D250" s="1">
+        <v>191.972122033593</v>
+      </c>
+      <c r="E250" s="1">
+        <v>221.97605625</v>
+      </c>
+      <c r="F250" s="1">
+        <v>0</v>
+      </c>
+      <c r="G250" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B251" s="1">
+        <v>543.98183232421798</v>
+      </c>
+      <c r="C251" s="1">
+        <v>216.142580566406</v>
+      </c>
+      <c r="D251" s="1">
+        <v>556.82387241484298</v>
+      </c>
+      <c r="E251" s="1">
+        <v>221.97605625</v>
+      </c>
+      <c r="F251" s="1">
+        <v>0</v>
+      </c>
+      <c r="G251" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B252" s="1">
+        <v>598.05005185546804</v>
+      </c>
+      <c r="C252" s="1">
+        <v>216.142580566406</v>
+      </c>
+      <c r="D252" s="1">
+        <v>616.26642601406195</v>
+      </c>
+      <c r="E252" s="1">
+        <v>221.95267558593699</v>
+      </c>
+      <c r="F252" s="1">
+        <v>0</v>
+      </c>
+      <c r="G252" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B253" s="1">
+        <v>28.171432519531201</v>
+      </c>
+      <c r="C253" s="1">
+        <v>215.94868378906199</v>
+      </c>
+      <c r="D253" s="1">
+        <v>64.722798739062497</v>
+      </c>
+      <c r="E253" s="1">
+        <v>221.78605625</v>
+      </c>
+      <c r="F253" s="1">
+        <v>0</v>
+      </c>
+      <c r="G253" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B254" s="1">
+        <v>28.475381152343701</v>
+      </c>
+      <c r="C254" s="1">
+        <v>204.24</v>
+      </c>
+      <c r="D254" s="1">
+        <v>67.897300608593696</v>
+      </c>
+      <c r="E254" s="1">
+        <v>210.050095019531</v>
+      </c>
+      <c r="F254" s="1">
+        <v>0</v>
+      </c>
+      <c r="G254" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B255" s="1">
+        <v>137.655690820312</v>
+      </c>
+      <c r="C255" s="1">
+        <v>204.24</v>
+      </c>
+      <c r="D255" s="1">
+        <v>151.22486184140601</v>
+      </c>
+      <c r="E255" s="1">
+        <v>209.97605625</v>
+      </c>
+      <c r="F255" s="1">
+        <v>0</v>
+      </c>
+      <c r="G255" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B256" s="1">
+        <v>275.28569082031203</v>
+      </c>
+      <c r="C256" s="1">
+        <v>204.24</v>
+      </c>
+      <c r="D256" s="1">
+        <v>288.95617805234298</v>
+      </c>
+      <c r="E256" s="1">
+        <v>209.874740039062</v>
+      </c>
+      <c r="F256" s="1">
+        <v>0</v>
+      </c>
+      <c r="G256" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B257" s="1">
+        <v>468.15830966796801</v>
+      </c>
+      <c r="C257" s="1">
+        <v>204.24</v>
+      </c>
+      <c r="D257" s="1">
+        <v>479.00995492656199</v>
+      </c>
+      <c r="E257" s="1">
+        <v>210.050095019531</v>
+      </c>
+      <c r="F257" s="1">
+        <v>0</v>
+      </c>
+      <c r="G257" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>4</v>
+      </c>
+      <c r="B258" s="1">
+        <v>530.291316210937</v>
+      </c>
+      <c r="C258" s="1">
+        <v>204.24</v>
+      </c>
+      <c r="D258" s="1">
+        <v>534.24264843749995</v>
+      </c>
+      <c r="E258" s="1">
+        <v>209.95267558593699</v>
+      </c>
+      <c r="F258" s="1">
+        <v>0</v>
+      </c>
+      <c r="G258" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B259" s="1">
+        <v>598.14747128906197</v>
+      </c>
+      <c r="C259" s="1">
+        <v>204.142580566406</v>
+      </c>
+      <c r="D259" s="1">
+        <v>608.19289378593703</v>
+      </c>
+      <c r="E259" s="1">
+        <v>209.95267558593699</v>
+      </c>
+      <c r="F259" s="1">
+        <v>0</v>
+      </c>
+      <c r="G259" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>40</v>
+      </c>
+      <c r="B260" s="1">
+        <v>584.23807753906203</v>
+      </c>
+      <c r="C260" s="1">
+        <v>204.02</v>
+      </c>
+      <c r="D260" s="1">
+        <v>592.56851848281201</v>
+      </c>
+      <c r="E260" s="1">
+        <v>209.75605625</v>
+      </c>
+      <c r="F260" s="1">
+        <v>0</v>
+      </c>
+      <c r="G260" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B261" s="1">
+        <v>330.78078807031198</v>
+      </c>
+      <c r="C261" s="1">
+        <v>189.90024814453099</v>
+      </c>
+      <c r="D261" s="1">
+        <v>341.14923970390601</v>
+      </c>
+      <c r="E261" s="1">
+        <v>195.670248144531</v>
+      </c>
+      <c r="F261" s="1">
+        <v>0</v>
+      </c>
+      <c r="G261" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B262" s="1">
+        <v>137.69465859375001</v>
+      </c>
+      <c r="C262" s="1">
+        <v>186.21</v>
+      </c>
+      <c r="D262" s="1">
+        <v>169.51683348046799</v>
+      </c>
+      <c r="E262" s="1">
+        <v>191.92267558593699</v>
+      </c>
+      <c r="F262" s="1">
+        <v>0</v>
+      </c>
+      <c r="G262" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B263" s="1">
+        <v>274.85704531250002</v>
+      </c>
+      <c r="C263" s="1">
+        <v>186.21</v>
+      </c>
+      <c r="D263" s="1">
+        <v>298.83460214140598</v>
+      </c>
+      <c r="E263" s="1">
+        <v>191.98</v>
+      </c>
+      <c r="F263" s="1">
+        <v>0</v>
+      </c>
+      <c r="G263" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B264" s="1">
+        <v>302.45963382031198</v>
+      </c>
+      <c r="C264" s="1">
+        <v>186.21</v>
+      </c>
+      <c r="D264" s="1">
+        <v>327.88869344843698</v>
+      </c>
+      <c r="E264" s="1">
+        <v>191.92267558593699</v>
+      </c>
+      <c r="F264" s="1">
+        <v>0</v>
+      </c>
+      <c r="G264" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B265" s="1">
+        <v>416.02428447265601</v>
+      </c>
+      <c r="C265" s="1">
+        <v>186.21</v>
+      </c>
+      <c r="D265" s="1">
+        <v>447.549618448437</v>
+      </c>
+      <c r="E265" s="1">
+        <v>191.92267558593699</v>
+      </c>
+      <c r="F265" s="1">
+        <v>0</v>
+      </c>
+      <c r="G265" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>1</v>
+      </c>
+      <c r="B266" s="1">
+        <v>508.72898134765597</v>
+      </c>
+      <c r="C266" s="1">
+        <v>186.21</v>
+      </c>
+      <c r="D266" s="1">
+        <v>510.83324111328102</v>
+      </c>
+      <c r="E266" s="1">
+        <v>191.94605625</v>
+      </c>
+      <c r="F266" s="1">
+        <v>0</v>
+      </c>
+      <c r="G266" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B267" s="1">
+        <v>619.29880462031201</v>
+      </c>
+      <c r="C267" s="1">
+        <v>186.21</v>
+      </c>
+      <c r="D267" s="1">
+        <v>635.11806840234306</v>
+      </c>
+      <c r="E267" s="1">
+        <v>191.92267558593699</v>
+      </c>
+      <c r="F267" s="1">
+        <v>0</v>
+      </c>
+      <c r="G267" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B268" s="1">
+        <v>171.90926772421801</v>
+      </c>
+      <c r="C268" s="1">
+        <v>186.112580566406</v>
+      </c>
+      <c r="D268" s="1">
+        <v>189.156653641406</v>
+      </c>
+      <c r="E268" s="1">
+        <v>191.94605625</v>
+      </c>
+      <c r="F268" s="1">
+        <v>0</v>
+      </c>
+      <c r="G268" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B269" s="1">
+        <v>192.19236788906201</v>
+      </c>
+      <c r="C269" s="1">
+        <v>186.112580566406</v>
+      </c>
+      <c r="D269" s="1">
+        <v>212.35697484843701</v>
+      </c>
+      <c r="E269" s="1">
+        <v>191.92267558593699</v>
+      </c>
+      <c r="F269" s="1">
+        <v>0</v>
+      </c>
+      <c r="G269" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B270" s="1">
+        <v>215.28024368906199</v>
+      </c>
+      <c r="C270" s="1">
+        <v>186.112580566406</v>
+      </c>
+      <c r="D270" s="1">
+        <v>230.937900321093</v>
+      </c>
+      <c r="E270" s="1">
+        <v>191.92267558593699</v>
+      </c>
+      <c r="F270" s="1">
+        <v>0</v>
+      </c>
+      <c r="G270" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B271" s="1">
+        <v>543.98183232421798</v>
+      </c>
+      <c r="C271" s="1">
+        <v>186.112580566406</v>
+      </c>
+      <c r="D271" s="1">
+        <v>556.82387241484298</v>
+      </c>
+      <c r="E271" s="1">
+        <v>191.94605625</v>
+      </c>
+      <c r="F271" s="1">
+        <v>0</v>
+      </c>
+      <c r="G271" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B272" s="1">
+        <v>598.05005185546804</v>
+      </c>
+      <c r="C272" s="1">
+        <v>186.112580566406</v>
+      </c>
+      <c r="D272" s="1">
+        <v>616.26642601406195</v>
+      </c>
+      <c r="E272" s="1">
+        <v>191.92267558593699</v>
+      </c>
+      <c r="F272" s="1">
+        <v>0</v>
+      </c>
+      <c r="G272" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B273" s="1">
+        <v>27.847999999999999</v>
+      </c>
+      <c r="C273" s="1">
+        <v>186.01</v>
+      </c>
+      <c r="D273" s="1">
+        <v>60.301546339062497</v>
+      </c>
+      <c r="E273" s="1">
+        <v>191.74605624999899</v>
+      </c>
+      <c r="F273" s="1">
+        <v>0</v>
+      </c>
+      <c r="G273" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B274" s="1">
+        <v>137.655690820312</v>
+      </c>
+      <c r="C274" s="1">
+        <v>174.2</v>
+      </c>
+      <c r="D274" s="1">
+        <v>154.617739113281</v>
+      </c>
+      <c r="E274" s="1">
+        <v>179.93605624999901</v>
+      </c>
+      <c r="F274" s="1">
+        <v>0</v>
+      </c>
+      <c r="G274" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B275" s="1">
+        <v>275.28569082031203</v>
+      </c>
+      <c r="C275" s="1">
+        <v>174.2</v>
+      </c>
+      <c r="D275" s="1">
+        <v>288.95617805234298</v>
+      </c>
+      <c r="E275" s="1">
+        <v>179.83474003906201</v>
+      </c>
+      <c r="F275" s="1">
+        <v>0</v>
+      </c>
+      <c r="G275" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>125</v>
+      </c>
+      <c r="B276" s="1">
+        <v>453.078981347656</v>
+      </c>
+      <c r="C276" s="1">
+        <v>174.2</v>
+      </c>
+      <c r="D276" s="1">
+        <v>465.20332085234298</v>
+      </c>
+      <c r="E276" s="1">
+        <v>179.83474003906201</v>
+      </c>
+      <c r="F276" s="1">
+        <v>0</v>
+      </c>
+      <c r="G276" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B277" s="1">
+        <v>468.37189962031198</v>
+      </c>
+      <c r="C277" s="1">
+        <v>174.2</v>
+      </c>
+      <c r="D277" s="1">
+        <v>478.93397432656201</v>
+      </c>
+      <c r="E277" s="1">
+        <v>180.01009501953101</v>
+      </c>
+      <c r="F277" s="1">
+        <v>0</v>
+      </c>
+      <c r="G277" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>4</v>
+      </c>
+      <c r="B278" s="1">
+        <v>530.291316210937</v>
+      </c>
+      <c r="C278" s="1">
+        <v>174.2</v>
+      </c>
+      <c r="D278" s="1">
+        <v>534.24264843749995</v>
+      </c>
+      <c r="E278" s="1">
+        <v>179.912675585937</v>
+      </c>
+      <c r="F278" s="1">
+        <v>0</v>
+      </c>
+      <c r="G278" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B279" s="1">
+        <v>598.36569082031201</v>
+      </c>
+      <c r="C279" s="1">
+        <v>174.2</v>
+      </c>
+      <c r="D279" s="1">
+        <v>618.59099398359297</v>
+      </c>
+      <c r="E279" s="1">
+        <v>180.01009501953101</v>
+      </c>
+      <c r="F279" s="1">
+        <v>0</v>
+      </c>
+      <c r="G279" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>262</v>
+      </c>
+      <c r="B280" s="1">
+        <v>621.21533324062398</v>
+      </c>
+      <c r="C280" s="1">
+        <v>174.2</v>
+      </c>
+      <c r="D280" s="1">
+        <v>633.82564764140602</v>
+      </c>
+      <c r="E280" s="1">
+        <v>179.93605624999901</v>
+      </c>
+      <c r="F280" s="1">
+        <v>0</v>
+      </c>
+      <c r="G280" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B281" s="1">
+        <v>28.2454712890625</v>
+      </c>
+      <c r="C281" s="1">
+        <v>174.102580566406</v>
+      </c>
+      <c r="D281" s="1">
+        <v>66.557962648437496</v>
+      </c>
+      <c r="E281" s="1">
+        <v>179.912675585937</v>
+      </c>
+      <c r="F281" s="1">
+        <v>0</v>
+      </c>
+      <c r="G281" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B282" s="1">
+        <v>636.92520668906195</v>
+      </c>
+      <c r="C282" s="1">
+        <v>174.102580566406</v>
+      </c>
+      <c r="D282" s="1">
+        <v>675.197795048437</v>
+      </c>
+      <c r="E282" s="1">
+        <v>179.912675585937</v>
+      </c>
+      <c r="F282" s="1">
+        <v>0</v>
+      </c>
+      <c r="G282" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>220</v>
+      </c>
+      <c r="B283" s="1">
+        <v>579.85873564453095</v>
+      </c>
+      <c r="C283" s="1">
+        <v>173.98</v>
+      </c>
+      <c r="D283" s="1">
+        <v>592.57218208281199</v>
+      </c>
+      <c r="E283" s="1">
+        <v>179.71605624999901</v>
+      </c>
+      <c r="F283" s="1">
+        <v>0</v>
+      </c>
+      <c r="G283" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B284" s="1">
+        <v>330.78078807031198</v>
+      </c>
+      <c r="C284" s="1">
+        <v>159.860248144531</v>
+      </c>
+      <c r="D284" s="1">
+        <v>341.14923970390601</v>
+      </c>
+      <c r="E284" s="1">
+        <v>165.63024814453101</v>
+      </c>
+      <c r="F284" s="1">
+        <v>0</v>
+      </c>
+      <c r="G284" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B285" s="1">
+        <v>137.69465859375001</v>
+      </c>
+      <c r="C285" s="1">
+        <v>156.16999999999999</v>
+      </c>
+      <c r="D285" s="1">
+        <v>169.51683348046799</v>
+      </c>
+      <c r="E285" s="1">
+        <v>161.88267558593699</v>
+      </c>
+      <c r="F285" s="1">
+        <v>0</v>
+      </c>
+      <c r="G285" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B286" s="1">
+        <v>274.85704531250002</v>
+      </c>
+      <c r="C286" s="1">
+        <v>156.16999999999999</v>
+      </c>
+      <c r="D286" s="1">
+        <v>298.83460214140598</v>
+      </c>
+      <c r="E286" s="1">
+        <v>161.94</v>
+      </c>
+      <c r="F286" s="1">
+        <v>0</v>
+      </c>
+      <c r="G286" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B287" s="1">
+        <v>302.45963382031198</v>
+      </c>
+      <c r="C287" s="1">
+        <v>156.16999999999999</v>
+      </c>
+      <c r="D287" s="1">
+        <v>327.88869344843698</v>
+      </c>
+      <c r="E287" s="1">
+        <v>161.88267558593699</v>
+      </c>
+      <c r="F287" s="1">
+        <v>0</v>
+      </c>
+      <c r="G287" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B288" s="1">
+        <v>416.02428447265601</v>
+      </c>
+      <c r="C288" s="1">
+        <v>156.16999999999999</v>
+      </c>
+      <c r="D288" s="1">
+        <v>447.549618448437</v>
+      </c>
+      <c r="E288" s="1">
+        <v>161.88267558593699</v>
+      </c>
+      <c r="F288" s="1">
+        <v>0</v>
+      </c>
+      <c r="G288" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>1</v>
+      </c>
+      <c r="B289" s="1">
+        <v>508.72898134765597</v>
+      </c>
+      <c r="C289" s="1">
+        <v>156.16999999999999</v>
+      </c>
+      <c r="D289" s="1">
+        <v>510.83324111328102</v>
+      </c>
+      <c r="E289" s="1">
+        <v>161.90605624999901</v>
+      </c>
+      <c r="F289" s="1">
+        <v>0</v>
+      </c>
+      <c r="G289" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B290" s="1">
+        <v>619.29880462031201</v>
+      </c>
+      <c r="C290" s="1">
+        <v>156.16999999999999</v>
+      </c>
+      <c r="D290" s="1">
+        <v>635.11806840234306</v>
+      </c>
+      <c r="E290" s="1">
+        <v>161.88267558593699</v>
+      </c>
+      <c r="F290" s="1">
+        <v>0</v>
+      </c>
+      <c r="G290" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B291" s="1">
+        <v>171.90926772421801</v>
+      </c>
+      <c r="C291" s="1">
+        <v>156.072580566406</v>
+      </c>
+      <c r="D291" s="1">
+        <v>189.156653641406</v>
+      </c>
+      <c r="E291" s="1">
+        <v>161.90605624999901</v>
+      </c>
+      <c r="F291" s="1">
+        <v>0</v>
+      </c>
+      <c r="G291" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B292" s="1">
+        <v>192.19236788906201</v>
+      </c>
+      <c r="C292" s="1">
+        <v>156.072580566406</v>
+      </c>
+      <c r="D292" s="1">
+        <v>212.35697484843701</v>
+      </c>
+      <c r="E292" s="1">
+        <v>161.88267558593699</v>
+      </c>
+      <c r="F292" s="1">
+        <v>0</v>
+      </c>
+      <c r="G292" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B293" s="1">
+        <v>215.28024368906199</v>
+      </c>
+      <c r="C293" s="1">
+        <v>156.072580566406</v>
+      </c>
+      <c r="D293" s="1">
+        <v>230.937900321093</v>
+      </c>
+      <c r="E293" s="1">
+        <v>161.88267558593699</v>
+      </c>
+      <c r="F293" s="1">
+        <v>0</v>
+      </c>
+      <c r="G293" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B294" s="1">
+        <v>543.98183232421798</v>
+      </c>
+      <c r="C294" s="1">
+        <v>156.072580566406</v>
+      </c>
+      <c r="D294" s="1">
+        <v>556.82387241484298</v>
+      </c>
+      <c r="E294" s="1">
+        <v>161.90605624999901</v>
+      </c>
+      <c r="F294" s="1">
+        <v>0</v>
+      </c>
+      <c r="G294" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B295" s="1">
+        <v>598.05005185546804</v>
+      </c>
+      <c r="C295" s="1">
+        <v>156.072580566406</v>
+      </c>
+      <c r="D295" s="1">
+        <v>616.26642601406195</v>
+      </c>
+      <c r="E295" s="1">
+        <v>161.88267558593699</v>
+      </c>
+      <c r="F295" s="1">
+        <v>0</v>
+      </c>
+      <c r="G295" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B296" s="1">
+        <v>27.847999999999999</v>
+      </c>
+      <c r="C296" s="1">
+        <v>155.97999999999999</v>
+      </c>
+      <c r="D296" s="1">
+        <v>61.197805128124998</v>
+      </c>
+      <c r="E296" s="1">
+        <v>161.71605624999901</v>
+      </c>
+      <c r="F296" s="1">
+        <v>0</v>
+      </c>
+      <c r="G296" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B297" s="1">
+        <v>137.655690820312</v>
+      </c>
+      <c r="C297" s="1">
+        <v>144.16</v>
+      </c>
+      <c r="D297" s="1">
+        <v>154.617739113281</v>
+      </c>
+      <c r="E297" s="1">
+        <v>149.89605624999999</v>
+      </c>
+      <c r="F297" s="1">
+        <v>0</v>
+      </c>
+      <c r="G297" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B298" s="1">
+        <v>275.28569082031203</v>
+      </c>
+      <c r="C298" s="1">
+        <v>144.16</v>
+      </c>
+      <c r="D298" s="1">
+        <v>288.95617805234298</v>
+      </c>
+      <c r="E298" s="1">
+        <v>149.79474003906199</v>
+      </c>
+      <c r="F298" s="1">
+        <v>0</v>
+      </c>
+      <c r="G298" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>125</v>
+      </c>
+      <c r="B299" s="1">
+        <v>453.078981347656</v>
+      </c>
+      <c r="C299" s="1">
+        <v>144.16</v>
+      </c>
+      <c r="D299" s="1">
+        <v>465.20332085234298</v>
+      </c>
+      <c r="E299" s="1">
+        <v>149.79474003906199</v>
+      </c>
+      <c r="F299" s="1">
+        <v>0</v>
+      </c>
+      <c r="G299" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B300" s="1">
+        <v>468.37189962031198</v>
+      </c>
+      <c r="C300" s="1">
+        <v>144.16</v>
+      </c>
+      <c r="D300" s="1">
+        <v>478.93397432656201</v>
+      </c>
+      <c r="E300" s="1">
+        <v>149.97009501953099</v>
+      </c>
+      <c r="F300" s="1">
+        <v>0</v>
+      </c>
+      <c r="G300" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>4</v>
+      </c>
+      <c r="B301" s="1">
+        <v>530.291316210937</v>
+      </c>
+      <c r="C301" s="1">
+        <v>144.16</v>
+      </c>
+      <c r="D301" s="1">
+        <v>534.24264843749995</v>
+      </c>
+      <c r="E301" s="1">
+        <v>149.872675585937</v>
+      </c>
+      <c r="F301" s="1">
+        <v>0</v>
+      </c>
+      <c r="G301" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B302" s="1">
+        <v>598.36569082031201</v>
+      </c>
+      <c r="C302" s="1">
+        <v>144.16</v>
+      </c>
+      <c r="D302" s="1">
+        <v>618.59099398359297</v>
+      </c>
+      <c r="E302" s="1">
+        <v>149.97009501953099</v>
+      </c>
+      <c r="F302" s="1">
+        <v>0</v>
+      </c>
+      <c r="G302" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>262</v>
+      </c>
+      <c r="B303" s="1">
+        <v>621.21533324062398</v>
+      </c>
+      <c r="C303" s="1">
+        <v>144.16</v>
+      </c>
+      <c r="D303" s="1">
+        <v>633.82564764140602</v>
+      </c>
+      <c r="E303" s="1">
+        <v>149.89605624999999</v>
+      </c>
+      <c r="F303" s="1">
+        <v>0</v>
+      </c>
+      <c r="G303" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B304" s="1">
+        <v>28.2454712890625</v>
+      </c>
+      <c r="C304" s="1">
+        <v>144.06258056640601</v>
+      </c>
+      <c r="D304" s="1">
+        <v>66.557962648437496</v>
+      </c>
+      <c r="E304" s="1">
+        <v>149.872675585937</v>
+      </c>
+      <c r="F304" s="1">
+        <v>0</v>
+      </c>
+      <c r="G304" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B305" s="1">
+        <v>636.92520668906195</v>
+      </c>
+      <c r="C305" s="1">
+        <v>144.06258056640601</v>
+      </c>
+      <c r="D305" s="1">
+        <v>675.197795048437</v>
+      </c>
+      <c r="E305" s="1">
+        <v>149.872675585937</v>
+      </c>
+      <c r="F305" s="1">
+        <v>0</v>
+      </c>
+      <c r="G305" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>220</v>
+      </c>
+      <c r="B306" s="1">
+        <v>579.85873564453095</v>
+      </c>
+      <c r="C306" s="1">
+        <v>143.94999999999999</v>
+      </c>
+      <c r="D306" s="1">
+        <v>592.57218208281199</v>
+      </c>
+      <c r="E306" s="1">
+        <v>149.68605624999901</v>
+      </c>
+      <c r="F306" s="1">
+        <v>0</v>
+      </c>
+      <c r="G306" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B307" s="1">
+        <v>330.78078807031198</v>
+      </c>
+      <c r="C307" s="1">
+        <v>129.82024814453101</v>
+      </c>
+      <c r="D307" s="1">
+        <v>341.14923970390601</v>
+      </c>
+      <c r="E307" s="1">
+        <v>135.59024814453099</v>
+      </c>
+      <c r="F307" s="1">
+        <v>0</v>
+      </c>
+      <c r="G307" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B308" s="1">
+        <v>137.69465859375001</v>
+      </c>
+      <c r="C308" s="1">
+        <v>126.13</v>
+      </c>
+      <c r="D308" s="1">
+        <v>169.51683348046799</v>
+      </c>
+      <c r="E308" s="1">
+        <v>131.842675585937</v>
+      </c>
+      <c r="F308" s="1">
+        <v>0</v>
+      </c>
+      <c r="G308" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B309" s="1">
+        <v>274.85704531250002</v>
+      </c>
+      <c r="C309" s="1">
+        <v>126.13</v>
+      </c>
+      <c r="D309" s="1">
+        <v>298.83460214140598</v>
+      </c>
+      <c r="E309" s="1">
+        <v>131.9</v>
+      </c>
+      <c r="F309" s="1">
+        <v>0</v>
+      </c>
+      <c r="G309" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B310" s="1">
+        <v>302.45963382031198</v>
+      </c>
+      <c r="C310" s="1">
+        <v>126.13</v>
+      </c>
+      <c r="D310" s="1">
+        <v>327.88869344843698</v>
+      </c>
+      <c r="E310" s="1">
+        <v>131.842675585937</v>
+      </c>
+      <c r="F310" s="1">
+        <v>0</v>
+      </c>
+      <c r="G310" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B311" s="1">
+        <v>416.02428447265601</v>
+      </c>
+      <c r="C311" s="1">
+        <v>126.13</v>
+      </c>
+      <c r="D311" s="1">
+        <v>447.549618448437</v>
+      </c>
+      <c r="E311" s="1">
+        <v>131.842675585937</v>
+      </c>
+      <c r="F311" s="1">
+        <v>0</v>
+      </c>
+      <c r="G311" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>1</v>
+      </c>
+      <c r="B312" s="1">
+        <v>508.72898134765597</v>
+      </c>
+      <c r="C312" s="1">
+        <v>126.13</v>
+      </c>
+      <c r="D312" s="1">
+        <v>510.83324111328102</v>
+      </c>
+      <c r="E312" s="1">
+        <v>131.86605624999899</v>
+      </c>
+      <c r="F312" s="1">
+        <v>0</v>
+      </c>
+      <c r="G312" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B313" s="1">
+        <v>619.29880462031201</v>
+      </c>
+      <c r="C313" s="1">
+        <v>126.13</v>
+      </c>
+      <c r="D313" s="1">
+        <v>635.11806840234306</v>
+      </c>
+      <c r="E313" s="1">
+        <v>131.842675585937</v>
+      </c>
+      <c r="F313" s="1">
+        <v>0</v>
+      </c>
+      <c r="G313" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B314" s="1">
+        <v>171.90926772421801</v>
+      </c>
+      <c r="C314" s="1">
+        <v>126.032580566406</v>
+      </c>
+      <c r="D314" s="1">
+        <v>189.156653641406</v>
+      </c>
+      <c r="E314" s="1">
+        <v>131.86605624999899</v>
+      </c>
+      <c r="F314" s="1">
+        <v>0</v>
+      </c>
+      <c r="G314" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B315" s="1">
+        <v>192.19236788906201</v>
+      </c>
+      <c r="C315" s="1">
+        <v>126.032580566406</v>
+      </c>
+      <c r="D315" s="1">
+        <v>212.35697484843701</v>
+      </c>
+      <c r="E315" s="1">
+        <v>131.842675585937</v>
+      </c>
+      <c r="F315" s="1">
+        <v>0</v>
+      </c>
+      <c r="G315" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B316" s="1">
+        <v>215.28024368906199</v>
+      </c>
+      <c r="C316" s="1">
+        <v>126.032580566406</v>
+      </c>
+      <c r="D316" s="1">
+        <v>230.937900321093</v>
+      </c>
+      <c r="E316" s="1">
+        <v>131.842675585937</v>
+      </c>
+      <c r="F316" s="1">
+        <v>0</v>
+      </c>
+      <c r="G316" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B317" s="1">
+        <v>543.98183232421798</v>
+      </c>
+      <c r="C317" s="1">
+        <v>126.032580566406</v>
+      </c>
+      <c r="D317" s="1">
+        <v>556.82387241484298</v>
+      </c>
+      <c r="E317" s="1">
+        <v>131.86605624999899</v>
+      </c>
+      <c r="F317" s="1">
+        <v>0</v>
+      </c>
+      <c r="G317" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B318" s="1">
+        <v>598.05005185546804</v>
+      </c>
+      <c r="C318" s="1">
+        <v>126.032580566406</v>
+      </c>
+      <c r="D318" s="1">
+        <v>616.26642601406195</v>
+      </c>
+      <c r="E318" s="1">
+        <v>131.842675585937</v>
+      </c>
+      <c r="F318" s="1">
+        <v>0</v>
+      </c>
+      <c r="G318" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B319" s="1">
+        <v>27.847999999999999</v>
+      </c>
+      <c r="C319" s="1">
+        <v>125.94</v>
+      </c>
+      <c r="D319" s="1">
+        <v>61.256256788281199</v>
+      </c>
+      <c r="E319" s="1">
+        <v>131.67605624999999</v>
+      </c>
+      <c r="F319" s="1">
+        <v>0</v>
+      </c>
+      <c r="G319" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B320" s="1">
+        <v>137.655690820312</v>
+      </c>
+      <c r="C320" s="1">
+        <v>114.12</v>
+      </c>
+      <c r="D320" s="1">
+        <v>154.617739113281</v>
+      </c>
+      <c r="E320" s="1">
+        <v>119.85605624999999</v>
+      </c>
+      <c r="F320" s="1">
+        <v>0</v>
+      </c>
+      <c r="G320" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B321" s="1">
+        <v>275.28569082031203</v>
+      </c>
+      <c r="C321" s="1">
+        <v>114.12</v>
+      </c>
+      <c r="D321" s="1">
+        <v>288.95617805234298</v>
+      </c>
+      <c r="E321" s="1">
+        <v>119.754740039062</v>
+      </c>
+      <c r="F321" s="1">
+        <v>0</v>
+      </c>
+      <c r="G321" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>125</v>
+      </c>
+      <c r="B322" s="1">
+        <v>453.078981347656</v>
+      </c>
+      <c r="C322" s="1">
+        <v>114.12</v>
+      </c>
+      <c r="D322" s="1">
+        <v>465.20332085234298</v>
+      </c>
+      <c r="E322" s="1">
+        <v>119.754740039062</v>
+      </c>
+      <c r="F322" s="1">
+        <v>0</v>
+      </c>
+      <c r="G322" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B323" s="1">
+        <v>468.37189962031198</v>
+      </c>
+      <c r="C323" s="1">
+        <v>114.12</v>
+      </c>
+      <c r="D323" s="1">
+        <v>478.93397432656201</v>
+      </c>
+      <c r="E323" s="1">
+        <v>119.930095019531</v>
+      </c>
+      <c r="F323" s="1">
+        <v>0</v>
+      </c>
+      <c r="G323" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>2</v>
+      </c>
+      <c r="B324" s="1">
+        <v>530.423806640625</v>
+      </c>
+      <c r="C324" s="1">
+        <v>114.12</v>
+      </c>
+      <c r="D324" s="1">
+        <v>534.20757744140599</v>
+      </c>
+      <c r="E324" s="1">
+        <v>119.85605624999999</v>
+      </c>
+      <c r="F324" s="1">
+        <v>0</v>
+      </c>
+      <c r="G324" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B325" s="1">
+        <v>598.36569082031201</v>
+      </c>
+      <c r="C325" s="1">
+        <v>114.12</v>
+      </c>
+      <c r="D325" s="1">
+        <v>618.59099398359297</v>
+      </c>
+      <c r="E325" s="1">
+        <v>119.930095019531</v>
+      </c>
+      <c r="F325" s="1">
+        <v>0</v>
+      </c>
+      <c r="G325" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>262</v>
+      </c>
+      <c r="B326" s="1">
+        <v>621.21533324062398</v>
+      </c>
+      <c r="C326" s="1">
+        <v>114.12</v>
+      </c>
+      <c r="D326" s="1">
+        <v>633.82564764140602</v>
+      </c>
+      <c r="E326" s="1">
+        <v>119.85605624999999</v>
+      </c>
+      <c r="F326" s="1">
+        <v>0</v>
+      </c>
+      <c r="G326" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B327" s="1">
+        <v>28.2454712890625</v>
+      </c>
+      <c r="C327" s="1">
+        <v>114.02258056640601</v>
+      </c>
+      <c r="D327" s="1">
+        <v>66.557962648437496</v>
+      </c>
+      <c r="E327" s="1">
+        <v>119.832675585937</v>
+      </c>
+      <c r="F327" s="1">
+        <v>0</v>
+      </c>
+      <c r="G327" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B328" s="1">
+        <v>636.92520668906195</v>
+      </c>
+      <c r="C328" s="1">
+        <v>114.02258056640601</v>
+      </c>
+      <c r="D328" s="1">
+        <v>675.197795048437</v>
+      </c>
+      <c r="E328" s="1">
+        <v>119.832675585937</v>
+      </c>
+      <c r="F328" s="1">
+        <v>0</v>
+      </c>
+      <c r="G328" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>220</v>
+      </c>
+      <c r="B329" s="1">
+        <v>579.85873564453095</v>
+      </c>
+      <c r="C329" s="1">
+        <v>113.91</v>
+      </c>
+      <c r="D329" s="1">
+        <v>592.57218208281199</v>
+      </c>
+      <c r="E329" s="1">
+        <v>119.64605625</v>
+      </c>
+      <c r="F329" s="1">
+        <v>0</v>
+      </c>
+      <c r="G329" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B330" s="1">
+        <v>330.77272754296803</v>
+      </c>
+      <c r="C330" s="1">
+        <v>99.794299560546804</v>
+      </c>
+      <c r="D330" s="1">
+        <v>341.16422572460903</v>
+      </c>
+      <c r="E330" s="1">
+        <v>105.564299560546</v>
+      </c>
+      <c r="F330" s="1">
+        <v>0</v>
+      </c>
+      <c r="G330" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B331" s="1">
+        <v>137.69661914062499</v>
+      </c>
+      <c r="C331" s="1">
+        <v>96.093000000000004</v>
+      </c>
+      <c r="D331" s="1">
+        <v>169.53404887695299</v>
+      </c>
+      <c r="E331" s="1">
+        <v>101.822783691406</v>
+      </c>
+      <c r="F331" s="1">
+        <v>0</v>
+      </c>
+      <c r="G331" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B332" s="1">
+        <v>274.85760546875002</v>
+      </c>
+      <c r="C332" s="1">
+        <v>96.093000000000004</v>
+      </c>
+      <c r="D332" s="1">
+        <v>298.83492888085902</v>
+      </c>
+      <c r="E332" s="1">
+        <v>101.863</v>
+      </c>
+      <c r="F332" s="1">
+        <v>0</v>
+      </c>
+      <c r="G332" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B333" s="1">
+        <v>302.454807667968</v>
+      </c>
+      <c r="C333" s="1">
+        <v>96.093000000000004</v>
+      </c>
+      <c r="D333" s="1">
+        <v>327.89598528515597</v>
+      </c>
+      <c r="E333" s="1">
+        <v>101.822783691406</v>
+      </c>
+      <c r="F333" s="1">
+        <v>0</v>
+      </c>
+      <c r="G333" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B334" s="1">
+        <v>416.02651342773402</v>
+      </c>
+      <c r="C334" s="1">
+        <v>96.093000000000004</v>
+      </c>
+      <c r="D334" s="1">
+        <v>447.57421778515601</v>
+      </c>
+      <c r="E334" s="1">
+        <v>101.822783691406</v>
+      </c>
+      <c r="F334" s="1">
+        <v>0</v>
+      </c>
+      <c r="G334" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>1</v>
+      </c>
+      <c r="B335" s="1">
+        <v>508.73158374023399</v>
+      </c>
+      <c r="C335" s="1">
+        <v>96.093000000000004</v>
+      </c>
+      <c r="D335" s="1">
+        <v>510.842145263671</v>
+      </c>
+      <c r="E335" s="1">
+        <v>101.84623437499999</v>
+      </c>
+      <c r="F335" s="1">
+        <v>0</v>
+      </c>
+      <c r="G335" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B336" s="1">
+        <v>619.29930216796799</v>
+      </c>
+      <c r="C336" s="1">
+        <v>96.093000000000004</v>
+      </c>
+      <c r="D336" s="1">
+        <v>635.12591838476499</v>
+      </c>
+      <c r="E336" s="1">
+        <v>101.822783691406</v>
+      </c>
+      <c r="F336" s="1">
+        <v>0</v>
+      </c>
+      <c r="G336" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B337" s="1">
+        <v>171.909634392578</v>
+      </c>
+      <c r="C337" s="1">
+        <v>95.995288818359299</v>
+      </c>
+      <c r="D337" s="1">
+        <v>189.17665413085899</v>
+      </c>
+      <c r="E337" s="1">
+        <v>101.84623437499999</v>
+      </c>
+      <c r="F337" s="1">
+        <v>0</v>
+      </c>
+      <c r="G337" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B338" s="1">
+        <v>192.20545062109301</v>
+      </c>
+      <c r="C338" s="1">
+        <v>95.995288818359299</v>
+      </c>
+      <c r="D338" s="1">
+        <v>212.36640978515601</v>
+      </c>
+      <c r="E338" s="1">
+        <v>101.822783691406</v>
+      </c>
+      <c r="F338" s="1">
+        <v>0</v>
+      </c>
+      <c r="G338" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B339" s="1">
+        <v>215.27441962109299</v>
+      </c>
+      <c r="C339" s="1">
+        <v>95.995288818359299</v>
+      </c>
+      <c r="D339" s="1">
+        <v>230.96295821288999</v>
+      </c>
+      <c r="E339" s="1">
+        <v>101.822783691406</v>
+      </c>
+      <c r="F339" s="1">
+        <v>0</v>
+      </c>
+      <c r="G339" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B340" s="1">
+        <v>543.98207739257805</v>
+      </c>
+      <c r="C340" s="1">
+        <v>95.995288818359299</v>
+      </c>
+      <c r="D340" s="1">
+        <v>556.83589760351504</v>
+      </c>
+      <c r="E340" s="1">
+        <v>101.84623437499999</v>
+      </c>
+      <c r="F340" s="1">
+        <v>0</v>
+      </c>
+      <c r="G340" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B341" s="1">
+        <v>598.050950439453</v>
+      </c>
+      <c r="C341" s="1">
+        <v>95.995288818359299</v>
+      </c>
+      <c r="D341" s="1">
+        <v>616.28185580859304</v>
+      </c>
+      <c r="E341" s="1">
+        <v>101.822783691406</v>
+      </c>
+      <c r="F341" s="1">
+        <v>0</v>
+      </c>
+      <c r="G341" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B342" s="1">
+        <v>27.847999999999999</v>
+      </c>
+      <c r="C342" s="1">
+        <v>95.9</v>
+      </c>
+      <c r="D342" s="1">
+        <v>61.420498914062499</v>
+      </c>
+      <c r="E342" s="1">
+        <v>101.653234375</v>
+      </c>
+      <c r="F342" s="1">
+        <v>0</v>
+      </c>
+      <c r="G342" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B343" s="1">
+        <v>137.65753466796801</v>
+      </c>
+      <c r="C343" s="1">
+        <v>84.087000000000003</v>
+      </c>
+      <c r="D343" s="1">
+        <v>154.62235326367099</v>
+      </c>
+      <c r="E343" s="1">
+        <v>89.840234374999994</v>
+      </c>
+      <c r="F343" s="1">
+        <v>0</v>
+      </c>
+      <c r="G343" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B344" s="1">
+        <v>275.28753466796798</v>
+      </c>
+      <c r="C344" s="1">
+        <v>84.087000000000003</v>
+      </c>
+      <c r="D344" s="1">
+        <v>288.982952759765</v>
+      </c>
+      <c r="E344" s="1">
+        <v>89.738614746093702</v>
+      </c>
+      <c r="F344" s="1">
+        <v>0</v>
+      </c>
+      <c r="G344" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>125</v>
+      </c>
+      <c r="B345" s="1">
+        <v>453.08158374023401</v>
+      </c>
+      <c r="C345" s="1">
+        <v>84.087000000000003</v>
+      </c>
+      <c r="D345" s="1">
+        <v>465.21021475976499</v>
+      </c>
+      <c r="E345" s="1">
+        <v>89.738614746093702</v>
+      </c>
+      <c r="F345" s="1">
+        <v>0</v>
+      </c>
+      <c r="G345" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B346" s="1">
+        <v>468.37227366796799</v>
+      </c>
+      <c r="C346" s="1">
+        <v>84.087000000000003</v>
+      </c>
+      <c r="D346" s="1">
+        <v>478.94997027734303</v>
+      </c>
+      <c r="E346" s="1">
+        <v>89.914494873046806</v>
+      </c>
+      <c r="F346" s="1">
+        <v>0</v>
+      </c>
+      <c r="G346" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>2</v>
+      </c>
+      <c r="B347" s="1">
+        <v>530.424506835937</v>
+      </c>
+      <c r="C347" s="1">
+        <v>84.087000000000003</v>
+      </c>
+      <c r="D347" s="1">
+        <v>534.219609130859</v>
+      </c>
+      <c r="E347" s="1">
+        <v>89.840234374999994</v>
+      </c>
+      <c r="F347" s="1">
+        <v>0</v>
+      </c>
+      <c r="G347" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B348" s="1">
+        <v>598.36753466796802</v>
+      </c>
+      <c r="C348" s="1">
+        <v>84.087000000000003</v>
+      </c>
+      <c r="D348" s="1">
+        <v>618.60538080664003</v>
+      </c>
+      <c r="E348" s="1">
+        <v>89.914494873046806</v>
+      </c>
+      <c r="F348" s="1">
+        <v>0</v>
+      </c>
+      <c r="G348" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>262</v>
+      </c>
+      <c r="B349" s="1">
+        <v>621.21356583593695</v>
+      </c>
+      <c r="C349" s="1">
+        <v>84.087000000000003</v>
+      </c>
+      <c r="D349" s="1">
+        <v>633.84563613085902</v>
+      </c>
+      <c r="E349" s="1">
+        <v>89.840234374999994</v>
+      </c>
+      <c r="F349" s="1">
+        <v>0</v>
+      </c>
+      <c r="G349" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B350" s="1">
+        <v>28.2466616210937</v>
+      </c>
+      <c r="C350" s="1">
+        <v>83.989288818359299</v>
+      </c>
+      <c r="D350" s="1">
+        <v>66.593844785156193</v>
+      </c>
+      <c r="E350" s="1">
+        <v>89.816783691406201</v>
+      </c>
+      <c r="F350" s="1">
+        <v>0</v>
+      </c>
+      <c r="G350" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B351" s="1">
+        <v>636.92245962109303</v>
+      </c>
+      <c r="C351" s="1">
+        <v>83.989288818359299</v>
+      </c>
+      <c r="D351" s="1">
+        <v>675.22161578515602</v>
+      </c>
+      <c r="E351" s="1">
+        <v>89.816783691406201</v>
+      </c>
+      <c r="F351" s="1">
+        <v>0</v>
+      </c>
+      <c r="G351" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>220</v>
+      </c>
+      <c r="B352" s="1">
+        <v>579.859330810546</v>
+      </c>
+      <c r="C352" s="1">
+        <v>83.894999999999996</v>
+      </c>
+      <c r="D352" s="1">
+        <v>592.58417226171798</v>
+      </c>
+      <c r="E352" s="1">
+        <v>89.648234375000001</v>
+      </c>
+      <c r="F352" s="1">
+        <v>0</v>
+      </c>
+      <c r="G352" s="1">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>